--- a/doc/[라떼는말이야]프로젝트_WBS.xlsx
+++ b/doc/[라떼는말이야]프로젝트_WBS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\git\issuewhatshow\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01.dev\git\issuewhatshow\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="176">
   <si>
     <t>공정</t>
   </si>
@@ -731,10 +731,6 @@
   </si>
   <si>
     <t>통합 분석기 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>word2vec 분석 코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -939,6 +935,18 @@
   </si>
   <si>
     <t>The Freedom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1331,6 +1339,54 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,54 +1410,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1683,13 +1691,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD153"/>
+  <dimension ref="A1:XFD156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="R35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1711,46 +1719,46 @@
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="39"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="31"/>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="37">
+      <c r="J1" s="56"/>
+      <c r="K1" s="53">
         <v>43771</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
       <c r="AB1" s="32"/>
-      <c r="AC1" s="56" t="s">
+      <c r="AC1" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD1" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="AD1" s="56" t="s">
+      <c r="AE1" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="AE1" s="56" t="s">
+      <c r="AF1" s="42" t="s">
         <v>165</v>
-      </c>
-      <c r="AF1" s="56" t="s">
-        <v>166</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>48</v>
@@ -1789,37 +1797,37 @@
       <c r="Z2" s="30"/>
       <c r="AA2" s="30"/>
       <c r="AB2" s="24"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="60"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="46"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="16"/>
       <c r="AJ2" s="8"/>
     </row>
     <row r="3" spans="1:53" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="54" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1959,14 +1967,14 @@
       </c>
     </row>
     <row r="4" spans="1:53" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="6">
         <v>43731</v>
       </c>
@@ -2104,10 +2112,10 @@
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="13">
@@ -2179,19 +2187,19 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="13">
-        <f t="shared" ref="C6:C43" si="0">IF(($K$1-F6+1)/E6&gt;=1,1,IF(($K$1-F6+1)/E6&lt;0,0, ($K$1-F6+1)/E6))</f>
+        <f t="shared" ref="C6:C46" si="0">IF(($K$1-F6+1)/E6&gt;=1,1,IF(($K$1-F6+1)/E6&lt;0,0, ($K$1-F6+1)/E6))</f>
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="10">
-        <f t="shared" ref="E6:E49" si="1">G6+1-F6</f>
+        <f t="shared" ref="E6:E46" si="1">G6+1-F6</f>
         <v>1</v>
       </c>
       <c r="F6" s="4">
@@ -2252,8 +2260,8 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="13">
@@ -2325,8 +2333,8 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="13">
@@ -2398,8 +2406,8 @@
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="37" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="13">
@@ -2407,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="1"/>
@@ -2471,8 +2479,8 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="38" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="13">
@@ -2480,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="1"/>
@@ -2544,9 +2552,9 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45" t="s">
-        <v>135</v>
+      <c r="A11" s="60"/>
+      <c r="B11" s="37" t="s">
+        <v>134</v>
       </c>
       <c r="C11" s="13">
         <f t="shared" si="0"/>
@@ -2617,8 +2625,8 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="38" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="13">
@@ -2626,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="1"/>
@@ -2690,8 +2698,8 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="38" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="13">
@@ -2699,7 +2707,7 @@
         <v>0.75</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="1"/>
@@ -2763,8 +2771,8 @@
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="13">
@@ -2772,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="1"/>
@@ -2836,8 +2844,8 @@
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="13">
@@ -2845,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="1"/>
@@ -2912,7 +2920,7 @@
       <c r="A16" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="39" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="13"/>
@@ -3045,7 +3053,7 @@
     <row r="18" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
       <c r="B18" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="0"/>
@@ -3190,8 +3198,8 @@
     </row>
     <row r="20" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
       <c r="A20" s="51"/>
-      <c r="B20" s="48" t="s">
-        <v>125</v>
+      <c r="B20" s="40" t="s">
+        <v>124</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="5"/>
@@ -3250,7 +3258,7 @@
     </row>
     <row r="21" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
       <c r="A21" s="51"/>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="41" t="s">
         <v>115</v>
       </c>
       <c r="C21" s="13"/>
@@ -3375,7 +3383,7 @@
         <f>IF(($K$1-F23+1)/E23&gt;=1,1,IF(($K$1-F23+1)/E23&lt;0,0, ($K$1-F23+1)/E23))</f>
         <v>1</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="47" t="s">
         <v>107</v>
       </c>
       <c r="E23" s="10">
@@ -3448,7 +3456,7 @@
         <f>IF(($K$1-F24+1)/E24&gt;=1,1,IF(($K$1-F24+1)/E24&lt;0,0, ($K$1-F24+1)/E24))</f>
         <v>1</v>
       </c>
-      <c r="D24" s="54"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3519,7 +3527,7 @@
         <f>IF(($K$1-F25+1)/E25&gt;=1,1,IF(($K$1-F25+1)/E25&lt;0,0, ($K$1-F25+1)/E25))</f>
         <v>1</v>
       </c>
-      <c r="D25" s="54"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3590,7 +3598,7 @@
         <f>IF(($K$1-F26+1)/E26&gt;=1,1,IF(($K$1-F26+1)/E26&lt;0,0, ($K$1-F26+1)/E26))</f>
         <v>1</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3720,7 +3728,7 @@
         <f>IF(($K$1-F28+1)/E28&gt;=1,1,IF(($K$1-F28+1)/E28&lt;0,0, ($K$1-F28+1)/E28))</f>
         <v>1</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="47" t="s">
         <v>108</v>
       </c>
       <c r="E28" s="10">
@@ -3793,7 +3801,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3805,7 +3813,7 @@
         <v>43739</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -3864,7 +3872,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3876,7 +3884,7 @@
         <v>43739</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -3935,7 +3943,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D31" s="55"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3947,7 +3955,7 @@
         <v>43739</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -3999,7 +4007,7 @@
     </row>
     <row r="32" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
       <c r="A32" s="51"/>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="41" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="13"/>
@@ -4065,7 +4073,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="47" t="s">
         <v>120</v>
       </c>
       <c r="E33" s="10">
@@ -4138,7 +4146,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D34" s="54"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4209,7 +4217,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D35" s="54"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4280,7 +4288,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D36" s="55"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4344,8 +4352,8 @@
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A37" s="51"/>
-      <c r="B37" s="49" t="s">
-        <v>139</v>
+      <c r="B37" s="41" t="s">
+        <v>138</v>
       </c>
       <c r="C37" s="13">
         <f t="shared" si="0"/>
@@ -4417,8 +4425,8 @@
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A38" s="51"/>
-      <c r="B38" s="49" t="s">
-        <v>140</v>
+      <c r="B38" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="C38" s="13">
         <f t="shared" si="0"/>
@@ -4490,8 +4498,8 @@
     </row>
     <row r="39" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="51"/>
-      <c r="B39" s="49" t="s">
-        <v>141</v>
+      <c r="B39" s="41" t="s">
+        <v>140</v>
       </c>
       <c r="C39" s="13">
         <f t="shared" si="0"/>
@@ -4563,8 +4571,8 @@
     </row>
     <row r="40" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="51"/>
-      <c r="B40" s="49" t="s">
-        <v>142</v>
+      <c r="B40" s="41" t="s">
+        <v>141</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="5"/>
@@ -4625,26 +4633,12 @@
       <c r="B41" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="13">
-        <f t="shared" ref="C40:C41" si="2">IF(($K$1-F41+1)/E41&gt;=1,1,IF(($K$1-F41+1)/E41&lt;0,0, ($K$1-F41+1)/E41))</f>
-        <v>1</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="10">
-        <f t="shared" ref="E40:E41" si="3">G41+1-F41</f>
-        <v>10</v>
-      </c>
-      <c r="F41" s="4">
-        <v>43742</v>
-      </c>
-      <c r="G41" s="4">
-        <v>43751</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>112</v>
-      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
@@ -4656,16 +4650,16 @@
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
       <c r="AE41" s="21"/>
       <c r="AF41" s="21"/>
@@ -4695,28 +4689,18 @@
     </row>
     <row r="42" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="51"/>
-      <c r="B42" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="B42" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="4">
         <v>43742</v>
       </c>
-      <c r="G42" s="4">
-        <v>43751</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>114</v>
+      <c r="G42" s="4"/>
+      <c r="H42" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -4729,16 +4713,16 @@
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
       <c r="AE42" s="21"/>
       <c r="AF42" s="21"/>
@@ -4762,34 +4746,20 @@
       <c r="AX42" s="34"/>
       <c r="AY42" s="34"/>
       <c r="AZ42" s="34"/>
-      <c r="BA42" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="BA42" s="2"/>
     </row>
     <row r="43" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="51"/>
-      <c r="B43" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F43" s="4">
-        <v>43750</v>
-      </c>
-      <c r="G43" s="4">
-        <v>43751</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>92</v>
+      <c r="B43" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -4810,8 +4780,8 @@
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
       <c r="AA43" s="21"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
       <c r="AE43" s="21"/>
       <c r="AF43" s="21"/>
@@ -4835,40 +4805,28 @@
       <c r="AX43" s="34"/>
       <c r="AY43" s="34"/>
       <c r="AZ43" s="34"/>
-      <c r="BA43" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="BA43" s="2"/>
     </row>
     <row r="44" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="51"/>
-      <c r="B44" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="13">
-        <f t="shared" ref="C44:C45" si="4">IF(($K$1-F44+1)/E44&gt;=1,1,IF(($K$1-F44+1)/E44&lt;0,0, ($K$1-F44+1)/E44))</f>
-        <v>1</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="10">
-        <f t="shared" ref="E44:E45" si="5">G44+1-F44</f>
-        <v>5</v>
-      </c>
-      <c r="F44" s="4">
-        <v>43752</v>
-      </c>
+      <c r="B44" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="4">
-        <v>43756</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+        <v>43751</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
@@ -4885,11 +4843,11 @@
       <c r="AA44" s="21"/>
       <c r="AB44" s="21"/>
       <c r="AC44" s="21"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="8"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="21"/>
       <c r="AI44" s="21"/>
       <c r="AJ44" s="21"/>
       <c r="AK44" s="21"/>
@@ -4908,42 +4866,54 @@
       <c r="AX44" s="34"/>
       <c r="AY44" s="34"/>
       <c r="AZ44" s="34"/>
-      <c r="BA44" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="BA44" s="2"/>
     </row>
     <row r="45" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="51"/>
-      <c r="B45" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="B45" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F45" s="4">
+        <v>43742</v>
+      </c>
+      <c r="G45" s="4">
+        <v>43751</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
       <c r="AD45" s="21"/>
       <c r="AE45" s="21"/>
       <c r="AF45" s="21"/>
@@ -4952,10 +4922,10 @@
       <c r="AI45" s="21"/>
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
-      <c r="AL45" s="21"/>
-      <c r="AM45" s="21"/>
-      <c r="AN45" s="21"/>
-      <c r="AO45" s="21"/>
+      <c r="AL45" s="34"/>
+      <c r="AM45" s="34"/>
+      <c r="AN45" s="34"/>
+      <c r="AO45" s="34"/>
       <c r="AP45" s="34"/>
       <c r="AQ45" s="34"/>
       <c r="AR45" s="34"/>
@@ -4973,34 +4943,34 @@
     </row>
     <row r="46" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="51"/>
-      <c r="B46" s="19" t="s">
-        <v>137</v>
+      <c r="B46" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="C46" s="13">
-        <f t="shared" ref="C46" si="6">IF(($K$1-F46+1)/E46&gt;=1,1,IF(($K$1-F46+1)/E46&lt;0,0, ($K$1-F46+1)/E46))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E46" s="10">
-        <f t="shared" ref="E46:E49" si="7">G46+1-F46</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F46" s="4">
-        <v>43757</v>
+        <v>43750</v>
       </c>
       <c r="G46" s="4">
-        <v>43758</v>
-      </c>
-      <c r="H46" s="14" t="s">
+        <v>43751</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
@@ -5015,15 +4985,15 @@
       <c r="Y46" s="21"/>
       <c r="Z46" s="21"/>
       <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
       <c r="AD46" s="21"/>
       <c r="AE46" s="21"/>
       <c r="AF46" s="21"/>
       <c r="AG46" s="21"/>
       <c r="AH46" s="21"/>
-      <c r="AI46" s="8"/>
-      <c r="AJ46" s="8"/>
+      <c r="AI46" s="21"/>
+      <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="34"/>
       <c r="AM46" s="34"/>
@@ -5046,28 +5016,28 @@
     </row>
     <row r="47" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="51"/>
-      <c r="B47" s="19" t="s">
-        <v>132</v>
+      <c r="B47" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="C47" s="13">
-        <f>IF(($K$1-F47+1)/E47&gt;=1,1,IF(($K$1-F47+1)/E47&lt;0,0, ($K$1-F47+1)/E47))</f>
+        <f t="shared" ref="C47" si="2">IF(($K$1-F47+1)/E47&gt;=1,1,IF(($K$1-F47+1)/E47&lt;0,0, ($K$1-F47+1)/E47))</f>
         <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E47" s="10">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" ref="E47" si="3">G47+1-F47</f>
+        <v>5</v>
       </c>
       <c r="F47" s="4">
-        <v>43757</v>
+        <v>43752</v>
       </c>
       <c r="G47" s="4">
-        <v>43763</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>102</v>
+        <v>43756</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -5090,18 +5060,18 @@
       <c r="AA47" s="21"/>
       <c r="AB47" s="21"/>
       <c r="AC47" s="21"/>
-      <c r="AD47" s="21"/>
-      <c r="AE47" s="21"/>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="21"/>
-      <c r="AI47" s="8"/>
-      <c r="AJ47" s="8"/>
-      <c r="AK47" s="8"/>
-      <c r="AL47" s="8"/>
-      <c r="AM47" s="8"/>
-      <c r="AN47" s="8"/>
-      <c r="AO47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="21"/>
+      <c r="AL47" s="34"/>
+      <c r="AM47" s="34"/>
+      <c r="AN47" s="34"/>
+      <c r="AO47" s="34"/>
       <c r="AP47" s="34"/>
       <c r="AQ47" s="34"/>
       <c r="AR47" s="34"/>
@@ -5119,29 +5089,15 @@
     </row>
     <row r="48" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="51"/>
-      <c r="B48" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="13">
-        <f>IF(($K$1-F48+1)/E48&gt;=1,1,IF(($K$1-F48+1)/E48&lt;0,0, ($K$1-F48+1)/E48))</f>
-        <v>1</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="10">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="F48" s="4">
-        <v>43757</v>
-      </c>
-      <c r="G48" s="4">
-        <v>43763</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>112</v>
-      </c>
+      <c r="B48" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="14"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -5168,13 +5124,13 @@
       <c r="AF48" s="21"/>
       <c r="AG48" s="21"/>
       <c r="AH48" s="21"/>
-      <c r="AI48" s="8"/>
-      <c r="AJ48" s="8"/>
-      <c r="AK48" s="8"/>
-      <c r="AL48" s="8"/>
-      <c r="AM48" s="8"/>
-      <c r="AN48" s="8"/>
-      <c r="AO48" s="8"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="21"/>
+      <c r="AL48" s="21"/>
+      <c r="AM48" s="21"/>
+      <c r="AN48" s="21"/>
+      <c r="AO48" s="21"/>
       <c r="AP48" s="34"/>
       <c r="AQ48" s="34"/>
       <c r="AR48" s="34"/>
@@ -5193,27 +5149,27 @@
     <row r="49" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="51"/>
       <c r="B49" s="19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C49" s="13">
-        <f>IF(($K$1-F49+1)/E49&gt;=1,1,IF(($K$1-F49+1)/E49&lt;0,0, ($K$1-F49+1)/E49))</f>
+        <f t="shared" ref="C49" si="4">IF(($K$1-F49+1)/E49&gt;=1,1,IF(($K$1-F49+1)/E49&lt;0,0, ($K$1-F49+1)/E49))</f>
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E49" s="10">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" ref="E49:E52" si="5">G49+1-F49</f>
+        <v>2</v>
       </c>
       <c r="F49" s="4">
         <v>43757</v>
       </c>
       <c r="G49" s="4">
-        <v>43763</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>133</v>
+        <v>43758</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -5243,11 +5199,11 @@
       <c r="AH49" s="21"/>
       <c r="AI49" s="8"/>
       <c r="AJ49" s="8"/>
-      <c r="AK49" s="8"/>
-      <c r="AL49" s="8"/>
-      <c r="AM49" s="8"/>
-      <c r="AN49" s="8"/>
-      <c r="AO49" s="8"/>
+      <c r="AK49" s="21"/>
+      <c r="AL49" s="34"/>
+      <c r="AM49" s="34"/>
+      <c r="AN49" s="34"/>
+      <c r="AO49" s="34"/>
       <c r="AP49" s="34"/>
       <c r="AQ49" s="34"/>
       <c r="AR49" s="34"/>
@@ -5266,27 +5222,27 @@
     <row r="50" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="51"/>
       <c r="B50" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C50" s="13">
-        <f t="shared" ref="C50:C55" si="8">IF(($K$1-F50+1)/E50&gt;=1,1,IF(($K$1-F50+1)/E50&lt;0,0, ($K$1-F50+1)/E50))</f>
+        <f>IF(($K$1-F50+1)/E50&gt;=1,1,IF(($K$1-F50+1)/E50&lt;0,0, ($K$1-F50+1)/E50))</f>
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E50" s="10">
-        <f t="shared" ref="E50:E56" si="9">G50+1-F50</f>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="F50" s="4">
-        <v>43759</v>
+        <v>43757</v>
       </c>
       <c r="G50" s="4">
-        <v>43761</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>97</v>
+        <v>43763</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -5314,13 +5270,13 @@
       <c r="AF50" s="21"/>
       <c r="AG50" s="21"/>
       <c r="AH50" s="21"/>
-      <c r="AI50" s="21"/>
-      <c r="AJ50" s="21"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
       <c r="AK50" s="8"/>
       <c r="AL50" s="8"/>
       <c r="AM50" s="8"/>
-      <c r="AN50" s="34"/>
-      <c r="AO50" s="34"/>
+      <c r="AN50" s="8"/>
+      <c r="AO50" s="8"/>
       <c r="AP50" s="34"/>
       <c r="AQ50" s="34"/>
       <c r="AR50" s="34"/>
@@ -5339,27 +5295,27 @@
     <row r="51" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="51"/>
       <c r="B51" s="19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C51" s="13">
-        <f t="shared" si="8"/>
+        <f>IF(($K$1-F51+1)/E51&gt;=1,1,IF(($K$1-F51+1)/E51&lt;0,0, ($K$1-F51+1)/E51))</f>
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E51" s="10">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="F51" s="4">
-        <v>43762</v>
+        <v>43757</v>
       </c>
       <c r="G51" s="4">
         <v>43763</v>
       </c>
-      <c r="H51" s="35" t="s">
-        <v>97</v>
+      <c r="H51" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -5387,11 +5343,11 @@
       <c r="AF51" s="21"/>
       <c r="AG51" s="21"/>
       <c r="AH51" s="21"/>
-      <c r="AI51" s="21"/>
-      <c r="AJ51" s="21"/>
-      <c r="AK51" s="21"/>
-      <c r="AL51" s="34"/>
-      <c r="AM51" s="34"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="8"/>
       <c r="AN51" s="8"/>
       <c r="AO51" s="8"/>
       <c r="AP51" s="34"/>
@@ -5411,15 +5367,29 @@
     </row>
     <row r="52" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="51"/>
-      <c r="B52" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="35"/>
+      <c r="B52" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="13">
+        <f>IF(($K$1-F52+1)/E52&gt;=1,1,IF(($K$1-F52+1)/E52&lt;0,0, ($K$1-F52+1)/E52))</f>
+        <v>1</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="10">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F52" s="4">
+        <v>43757</v>
+      </c>
+      <c r="G52" s="4">
+        <v>43763</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -5446,18 +5416,18 @@
       <c r="AF52" s="21"/>
       <c r="AG52" s="21"/>
       <c r="AH52" s="21"/>
-      <c r="AI52" s="21"/>
-      <c r="AJ52" s="21"/>
-      <c r="AK52" s="21"/>
-      <c r="AL52" s="34"/>
-      <c r="AM52" s="34"/>
-      <c r="AN52" s="34"/>
-      <c r="AO52" s="34"/>
-      <c r="AP52" s="21"/>
-      <c r="AQ52" s="21"/>
-      <c r="AR52" s="21"/>
-      <c r="AS52" s="21"/>
-      <c r="AT52" s="21"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="8"/>
+      <c r="AN52" s="8"/>
+      <c r="AO52" s="8"/>
+      <c r="AP52" s="34"/>
+      <c r="AQ52" s="34"/>
+      <c r="AR52" s="34"/>
+      <c r="AS52" s="34"/>
+      <c r="AT52" s="34"/>
       <c r="AU52" s="34"/>
       <c r="AV52" s="34"/>
       <c r="AW52" s="34"/>
@@ -5471,27 +5441,27 @@
     <row r="53" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="51"/>
       <c r="B53" s="19" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C53" s="13">
-        <f>IF(($K$1-F53+1)/E53&gt;=1,1,IF(($K$1-F53+1)/E53&lt;0,0, ($K$1-F53+1)/E53))</f>
+        <f t="shared" ref="C53:C54" si="6">IF(($K$1-F53+1)/E53&gt;=1,1,IF(($K$1-F53+1)/E53&lt;0,0, ($K$1-F53+1)/E53))</f>
         <v>1</v>
       </c>
-      <c r="D53" s="53" t="s">
-        <v>170</v>
+      <c r="D53" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" ref="E53:E59" si="7">G53+1-F53</f>
+        <v>3</v>
       </c>
       <c r="F53" s="4">
-        <v>43764</v>
+        <v>43759</v>
       </c>
       <c r="G53" s="4">
-        <v>43768</v>
+        <v>43761</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -5521,16 +5491,16 @@
       <c r="AH53" s="21"/>
       <c r="AI53" s="21"/>
       <c r="AJ53" s="21"/>
-      <c r="AK53" s="21"/>
-      <c r="AL53" s="34"/>
-      <c r="AM53" s="34"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="8"/>
       <c r="AN53" s="34"/>
       <c r="AO53" s="34"/>
-      <c r="AP53" s="8"/>
-      <c r="AQ53" s="8"/>
-      <c r="AR53" s="8"/>
-      <c r="AS53" s="8"/>
-      <c r="AT53" s="8"/>
+      <c r="AP53" s="34"/>
+      <c r="AQ53" s="34"/>
+      <c r="AR53" s="34"/>
+      <c r="AS53" s="34"/>
+      <c r="AT53" s="34"/>
       <c r="AU53" s="34"/>
       <c r="AV53" s="34"/>
       <c r="AW53" s="34"/>
@@ -5544,25 +5514,27 @@
     <row r="54" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="51"/>
       <c r="B54" s="19" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C54" s="13">
-        <f>IF(($K$1-F54+1)/E54&gt;=1,1,IF(($K$1-F54+1)/E54&lt;0,0, ($K$1-F54+1)/E54))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D54" s="54"/>
+      <c r="D54" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="E54" s="10">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="F54" s="4">
-        <v>43764</v>
+        <v>43762</v>
       </c>
       <c r="G54" s="4">
-        <v>43768</v>
+        <v>43763</v>
       </c>
       <c r="H54" s="35" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -5595,13 +5567,13 @@
       <c r="AK54" s="21"/>
       <c r="AL54" s="34"/>
       <c r="AM54" s="34"/>
-      <c r="AN54" s="34"/>
-      <c r="AO54" s="34"/>
-      <c r="AP54" s="8"/>
-      <c r="AQ54" s="8"/>
-      <c r="AR54" s="8"/>
-      <c r="AS54" s="8"/>
-      <c r="AT54" s="8"/>
+      <c r="AN54" s="8"/>
+      <c r="AO54" s="8"/>
+      <c r="AP54" s="34"/>
+      <c r="AQ54" s="34"/>
+      <c r="AR54" s="34"/>
+      <c r="AS54" s="34"/>
+      <c r="AT54" s="34"/>
       <c r="AU54" s="34"/>
       <c r="AV54" s="34"/>
       <c r="AW54" s="34"/>
@@ -5614,27 +5586,15 @@
     </row>
     <row r="55" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="51"/>
-      <c r="B55" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="13">
-        <f>IF(($K$1-F55+1)/E55&gt;=1,1,IF(($K$1-F55+1)/E55&lt;0,0, ($K$1-F55+1)/E55))</f>
-        <v>1</v>
-      </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="10">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="F55" s="4">
-        <v>43764</v>
-      </c>
-      <c r="G55" s="4">
-        <v>43768</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>157</v>
-      </c>
+      <c r="B55" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="35"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -5668,11 +5628,11 @@
       <c r="AM55" s="34"/>
       <c r="AN55" s="34"/>
       <c r="AO55" s="34"/>
-      <c r="AP55" s="8"/>
-      <c r="AQ55" s="8"/>
-      <c r="AR55" s="8"/>
-      <c r="AS55" s="8"/>
-      <c r="AT55" s="8"/>
+      <c r="AP55" s="21"/>
+      <c r="AQ55" s="21"/>
+      <c r="AR55" s="21"/>
+      <c r="AS55" s="21"/>
+      <c r="AT55" s="21"/>
       <c r="AU55" s="34"/>
       <c r="AV55" s="34"/>
       <c r="AW55" s="34"/>
@@ -5686,15 +5646,17 @@
     <row r="56" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="51"/>
       <c r="B56" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56" s="13">
-        <f>IF(($K$1-F56+1)/E56&gt;=1,1,IF(($K$1-F56+1)/E56&lt;0,0, ($K$1-F56+1)/E56))</f>
+        <f t="shared" ref="C56:C62" si="8">IF(($K$1-F56+1)/E56&gt;=1,1,IF(($K$1-F56+1)/E56&lt;0,0, ($K$1-F56+1)/E56))</f>
         <v>1</v>
       </c>
-      <c r="D56" s="55"/>
+      <c r="D56" s="47" t="s">
+        <v>169</v>
+      </c>
       <c r="E56" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F56" s="4">
@@ -5704,7 +5666,7 @@
         <v>43768</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -5756,28 +5718,26 @@
     </row>
     <row r="57" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="51"/>
-      <c r="B57" s="48" t="s">
-        <v>154</v>
+      <c r="B57" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="C57" s="13">
-        <f>IF(($K$1-F57+1)/E57&gt;=1,1,IF(($K$1-F57+1)/E57&lt;0,0, ($K$1-F57+1)/E57))</f>
-        <v>0.75</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>162</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="48"/>
       <c r="E57" s="10">
-        <f>G57+1-F57</f>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="F57" s="4">
-        <v>43769</v>
+        <v>43764</v>
       </c>
       <c r="G57" s="4">
-        <v>43772</v>
+        <v>43768</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -5812,15 +5772,15 @@
       <c r="AM57" s="34"/>
       <c r="AN57" s="34"/>
       <c r="AO57" s="34"/>
-      <c r="AP57" s="34"/>
-      <c r="AQ57" s="34"/>
-      <c r="AR57" s="34"/>
-      <c r="AS57" s="34"/>
-      <c r="AT57" s="34"/>
-      <c r="AU57" s="8"/>
-      <c r="AV57" s="8"/>
-      <c r="AW57" s="8"/>
-      <c r="AX57" s="8"/>
+      <c r="AP57" s="8"/>
+      <c r="AQ57" s="8"/>
+      <c r="AR57" s="8"/>
+      <c r="AS57" s="8"/>
+      <c r="AT57" s="8"/>
+      <c r="AU57" s="34"/>
+      <c r="AV57" s="34"/>
+      <c r="AW57" s="34"/>
+      <c r="AX57" s="34"/>
       <c r="AY57" s="34"/>
       <c r="AZ57" s="34"/>
       <c r="BA57" s="2" t="s">
@@ -5829,28 +5789,26 @@
     </row>
     <row r="58" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="51"/>
-      <c r="B58" s="48" t="s">
-        <v>155</v>
+      <c r="B58" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="C58" s="13">
-        <f>IF(($K$1-F58+1)/E58&gt;=1,1,IF(($K$1-F58+1)/E58&lt;0,0, ($K$1-F58+1)/E58))</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>152</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="48"/>
       <c r="E58" s="10">
-        <f>G58+1-F58</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="F58" s="4">
-        <v>43773</v>
+        <v>43764</v>
       </c>
       <c r="G58" s="4">
-        <v>43773</v>
+        <v>43768</v>
       </c>
       <c r="H58" s="35" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -5885,45 +5843,43 @@
       <c r="AM58" s="34"/>
       <c r="AN58" s="34"/>
       <c r="AO58" s="34"/>
-      <c r="AP58" s="34"/>
-      <c r="AQ58" s="34"/>
-      <c r="AR58" s="34"/>
-      <c r="AS58" s="34"/>
-      <c r="AT58" s="34"/>
+      <c r="AP58" s="8"/>
+      <c r="AQ58" s="8"/>
+      <c r="AR58" s="8"/>
+      <c r="AS58" s="8"/>
+      <c r="AT58" s="8"/>
       <c r="AU58" s="34"/>
       <c r="AV58" s="34"/>
       <c r="AW58" s="34"/>
       <c r="AX58" s="34"/>
-      <c r="AY58" s="8"/>
+      <c r="AY58" s="34"/>
       <c r="AZ58" s="34"/>
       <c r="BA58" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="52"/>
-      <c r="B59" s="48" t="s">
-        <v>151</v>
+      <c r="A59" s="51"/>
+      <c r="B59" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="C59" s="13">
-        <f>IF(($K$1-F59+1)/E59&gt;=1,1,IF(($K$1-F59+1)/E59&lt;0,0, ($K$1-F59+1)/E59))</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>173</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="49"/>
       <c r="E59" s="10">
-        <f>G59+1-F59</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="F59" s="4">
-        <v>43774</v>
+        <v>43764</v>
       </c>
       <c r="G59" s="4">
-        <v>43774</v>
+        <v>43768</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -5958,35 +5914,239 @@
       <c r="AM59" s="34"/>
       <c r="AN59" s="34"/>
       <c r="AO59" s="34"/>
-      <c r="AP59" s="34"/>
-      <c r="AQ59" s="34"/>
-      <c r="AR59" s="34"/>
-      <c r="AS59" s="34"/>
-      <c r="AT59" s="34"/>
+      <c r="AP59" s="8"/>
+      <c r="AQ59" s="8"/>
+      <c r="AR59" s="8"/>
+      <c r="AS59" s="8"/>
+      <c r="AT59" s="8"/>
       <c r="AU59" s="34"/>
       <c r="AV59" s="34"/>
       <c r="AW59" s="34"/>
       <c r="AX59" s="34"/>
       <c r="AY59" s="34"/>
-      <c r="AZ59" s="8"/>
+      <c r="AZ59" s="34"/>
       <c r="BA59" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="E60"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="E61"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="E62"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+    <row r="60" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="51"/>
+      <c r="B60" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="13">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="10">
+        <f>G60+1-F60</f>
+        <v>4</v>
+      </c>
+      <c r="F60" s="4">
+        <v>43769</v>
+      </c>
+      <c r="G60" s="4">
+        <v>43772</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="21"/>
+      <c r="AE60" s="21"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="21"/>
+      <c r="AH60" s="21"/>
+      <c r="AI60" s="21"/>
+      <c r="AJ60" s="21"/>
+      <c r="AK60" s="21"/>
+      <c r="AL60" s="34"/>
+      <c r="AM60" s="34"/>
+      <c r="AN60" s="34"/>
+      <c r="AO60" s="34"/>
+      <c r="AP60" s="34"/>
+      <c r="AQ60" s="34"/>
+      <c r="AR60" s="34"/>
+      <c r="AS60" s="34"/>
+      <c r="AT60" s="34"/>
+      <c r="AU60" s="8"/>
+      <c r="AV60" s="8"/>
+      <c r="AW60" s="8"/>
+      <c r="AX60" s="8"/>
+      <c r="AY60" s="34"/>
+      <c r="AZ60" s="34"/>
+      <c r="BA60" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="51"/>
+      <c r="B61" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="10">
+        <f>G61+1-F61</f>
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>43773</v>
+      </c>
+      <c r="G61" s="4">
+        <v>43773</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="21"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="21"/>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="21"/>
+      <c r="AL61" s="34"/>
+      <c r="AM61" s="34"/>
+      <c r="AN61" s="34"/>
+      <c r="AO61" s="34"/>
+      <c r="AP61" s="34"/>
+      <c r="AQ61" s="34"/>
+      <c r="AR61" s="34"/>
+      <c r="AS61" s="34"/>
+      <c r="AT61" s="34"/>
+      <c r="AU61" s="34"/>
+      <c r="AV61" s="34"/>
+      <c r="AW61" s="34"/>
+      <c r="AX61" s="34"/>
+      <c r="AY61" s="8"/>
+      <c r="AZ61" s="34"/>
+      <c r="BA61" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="52"/>
+      <c r="B62" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E62" s="10">
+        <f>G62+1-F62</f>
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>43774</v>
+      </c>
+      <c r="G62" s="4">
+        <v>43774</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
+      <c r="AB62" s="21"/>
+      <c r="AC62" s="21"/>
+      <c r="AD62" s="21"/>
+      <c r="AE62" s="21"/>
+      <c r="AF62" s="21"/>
+      <c r="AG62" s="21"/>
+      <c r="AH62" s="21"/>
+      <c r="AI62" s="21"/>
+      <c r="AJ62" s="21"/>
+      <c r="AK62" s="21"/>
+      <c r="AL62" s="34"/>
+      <c r="AM62" s="34"/>
+      <c r="AN62" s="34"/>
+      <c r="AO62" s="34"/>
+      <c r="AP62" s="34"/>
+      <c r="AQ62" s="34"/>
+      <c r="AR62" s="34"/>
+      <c r="AS62" s="34"/>
+      <c r="AT62" s="34"/>
+      <c r="AU62" s="34"/>
+      <c r="AV62" s="34"/>
+      <c r="AW62" s="34"/>
+      <c r="AX62" s="34"/>
+      <c r="AY62" s="34"/>
+      <c r="AZ62" s="8"/>
+      <c r="BA62" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="63" spans="1:53" x14ac:dyDescent="0.3">
       <c r="E63"/>
@@ -6009,14 +6169,17 @@
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E67"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E68"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E69"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
@@ -6356,13 +6519,23 @@
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
+    <row r="154" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+    </row>
+    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+    </row>
+    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A16:A59"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A15"/>
     <mergeCell ref="K1:AA1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F1:G1"/>
@@ -6372,9 +6545,11 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A16:A62"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D28:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/doc/[라떼는말이야]프로젝트_WBS.xlsx
+++ b/doc/[라떼는말이야]프로젝트_WBS.xlsx
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="176">
   <si>
     <t>공정</t>
   </si>
@@ -457,10 +457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">(프로젝트 명 작성) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,14 +674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>word2vec 연구 및 실행 코드 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF-IDF 연구 및 실행 코드 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김재현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -698,75 +686,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>크롤링 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형태소 분석기 선정 및 샘플 코드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전처리 모듈 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 크롤링 모듈 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이브러리 샘플 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형태소 분석 결과 및 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈 병합 및 기능 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 분석기 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈 별 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF + word2vec 연동 코드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈별 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연동된 통합 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연동된 통합 전처리/분석 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Application 개발 및 전처리 모듈연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 응용 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 프레임웍 작성 및 기본기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>문진한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>크롤링 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형태소 분석기 선정 및 샘플 코드 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전처리 모듈 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합 크롤링 모듈 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이브러리 샘플 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형태소 분석 결과 및 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듈 병합 및 기능 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합 분석기 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF-IDF 분석 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듈 별 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF-IDF + word2vec 연동 코드 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듈별 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연동된 통합 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연동된 통합 전처리/분석 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web Application 개발 및 전처리 모듈연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시각화 응용 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시각화 프레임웍 작성 및 기본기능 구현</t>
+    <t>시각화 기능 검수 및 초기 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Application 개발 및 전처리 모듈 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전처리/분석 서버 구성 및 자동화 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base web source 작성 및 DB 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS 배포 환경 구성 및 도메인 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링 코드 통합 및 모듈 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전처리 모듈 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 라이브러리 선정 및 프론트엔드 소스 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 베이스 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 검색 등 응용 기능 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 구현 환경 프론트엔드 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증 결과 및 수정 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전처리 모듈 자동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인 적용된 AWS 배포 환경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 안정화 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이희수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 문서 작업 및 전체 기능 검수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 기능 검수 및 안정화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 시스템 환경 테스트 및 안정화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용 기능 검수 및 안정화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 안정화 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이희수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 토론 및 주제 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 안정화 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 안정화 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Freedom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이희수,문진한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -774,179 +902,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시각화 기능 검수 및 초기 버그 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web Application 개발 및 전처리 모듈 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전처리/분석 서버 구성 및 자동화 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base web source 작성 및 DB 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AWS 배포 환경 구성 및 도메인 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링 코드 통합 및 모듈 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전처리 모듈 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시각화 라이브러리 선정 및 프론트엔드 소스 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">분석 모듈 개발 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합 베이스 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 검색 등 응용 기능 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시각화 구현 환경 프론트엔드 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검증 결과 및 수정 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전처리 모듈 자동화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도메인 적용된 AWS 배포 환경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 안정화 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 발표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alpha Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beta Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이희수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발표 문서 작업 및 전체 기능 검수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시각화 기능 검수 및 안정화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 시스템 환경 테스트 및 안정화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응용 기능 검수 및 안정화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 안정화 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차
-분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차
-분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차
-분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4차
-분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이희수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 토론 및 주제 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 안정화 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 안정화 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Freedom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행3</t>
+    <t>자료수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 1 : word2vec 연구 및 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 2 : TF-IDF 연구 및 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    각 테스트 분석 및 토의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 모듈 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 프로세스 연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF 코드를 통한 분석결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word2vec과 TF-IDF 참고자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word2vec를 통한 분석결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 분석 프로세스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IssueWhatShow(잇슈왓슈)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,7 +955,7 @@
     <numFmt numFmtId="177" formatCode="0&quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,8 +1052,16 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,31 +1096,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,7 +1207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,23 +1331,35 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1387,29 +1379,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1694,10 +1665,10 @@
   <dimension ref="A1:XFD156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="R35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1716,50 +1687,42 @@
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="55" t="s">
+      <c r="B1" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="31"/>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="53">
-        <v>43771</v>
-      </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="46">
+        <v>43774</v>
+      </c>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
       <c r="AB1" s="32"/>
-      <c r="AC1" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD1" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE1" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF1" s="42" t="s">
-        <v>165</v>
-      </c>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
       <c r="AH1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1767,7 +1730,7 @@
         <v>49</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1797,37 +1760,37 @@
       <c r="Z2" s="30"/>
       <c r="AA2" s="30"/>
       <c r="AB2" s="24"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="46"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="16"/>
       <c r="AJ2" s="8"/>
     </row>
     <row r="3" spans="1:53" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="43" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1918,63 +1881,63 @@
         <v>39</v>
       </c>
       <c r="AL3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="18" t="s">
+      <c r="AN3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AN3" s="18" t="s">
+      <c r="AO3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AO3" s="18" t="s">
+      <c r="AP3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AP3" s="18" t="s">
+      <c r="AQ3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AQ3" s="18" t="s">
+      <c r="AR3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AR3" s="18" t="s">
+      <c r="AS3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" s="18" t="s">
+      <c r="AT3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AT3" s="18" t="s">
+      <c r="AU3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AU3" s="18" t="s">
+      <c r="AV3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AV3" s="18" t="s">
+      <c r="AW3" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AW3" s="18" t="s">
+      <c r="AX3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AX3" s="18" t="s">
+      <c r="AY3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AY3" s="18" t="s">
+      <c r="AZ3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AZ3" s="18" t="s">
-        <v>66</v>
-      </c>
       <c r="BA3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:53" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="6">
         <v>43731</v>
       </c>
@@ -2108,22 +2071,22 @@
         <v>43774</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="13">
         <f>IF(($K$1-F5+1)/E5&gt;=1,1,IF(($K$1-F5+1)/E5&lt;0,0, ($K$1-F5+1)/E5))</f>
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="10">
         <f>G5+1-F5</f>
@@ -2136,7 +2099,7 @@
         <v>43733</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -2183,13 +2146,13 @@
       <c r="AY5" s="34"/>
       <c r="AZ5" s="34"/>
       <c r="BA5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:C46" si="0">IF(($K$1-F6+1)/E6&gt;=1,1,IF(($K$1-F6+1)/E6&lt;0,0, ($K$1-F6+1)/E6))</f>
@@ -2209,7 +2172,7 @@
         <v>43734</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2256,20 +2219,20 @@
       <c r="AY6" s="34"/>
       <c r="AZ6" s="34"/>
       <c r="BA6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="1"/>
@@ -2282,7 +2245,7 @@
         <v>43735</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -2329,11 +2292,11 @@
       <c r="AY7" s="34"/>
       <c r="AZ7" s="34"/>
       <c r="BA7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="37" t="s">
         <v>44</v>
       </c>
@@ -2342,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="1"/>
@@ -2355,7 +2318,7 @@
         <v>43737</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -2402,20 +2365,20 @@
       <c r="AY8" s="34"/>
       <c r="AZ8" s="34"/>
       <c r="BA8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="1"/>
@@ -2428,7 +2391,7 @@
         <v>43751</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -2475,20 +2438,20 @@
       <c r="AY9" s="34"/>
       <c r="AZ9" s="34"/>
       <c r="BA9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="1"/>
@@ -2501,7 +2464,7 @@
         <v>43756</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -2548,20 +2511,20 @@
       <c r="AY10" s="34"/>
       <c r="AZ10" s="34"/>
       <c r="BA10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C11" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="1"/>
@@ -2574,7 +2537,7 @@
         <v>43763</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -2621,11 +2584,11 @@
       <c r="AY11" s="34"/>
       <c r="AZ11" s="34"/>
       <c r="BA11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="38" t="s">
         <v>40</v>
       </c>
@@ -2634,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="1"/>
@@ -2647,7 +2610,7 @@
         <v>43768</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -2694,20 +2657,20 @@
       <c r="AY12" s="34"/>
       <c r="AZ12" s="34"/>
       <c r="BA12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="38" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="13">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="1"/>
@@ -2720,7 +2683,7 @@
         <v>43772</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -2767,20 +2730,20 @@
       <c r="AY13" s="34"/>
       <c r="AZ13" s="34"/>
       <c r="BA13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="1"/>
@@ -2793,7 +2756,7 @@
         <v>43773</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -2840,20 +2803,20 @@
       <c r="AY14" s="8"/>
       <c r="AZ14" s="34"/>
       <c r="BA14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="1"/>
@@ -2866,7 +2829,7 @@
         <v>43774</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -2913,15 +2876,15 @@
       <c r="AY15" s="34"/>
       <c r="AZ15" s="8"/>
       <c r="BA15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="54" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="5"/>
@@ -2974,20 +2937,20 @@
       <c r="AY16" s="34"/>
       <c r="AZ16" s="34"/>
       <c r="BA16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="1"/>
@@ -3000,7 +2963,7 @@
         <v>43733</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -3047,20 +3010,20 @@
       <c r="AY17" s="34"/>
       <c r="AZ17" s="34"/>
       <c r="BA17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="19" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
@@ -3073,7 +3036,7 @@
         <v>43734</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -3120,20 +3083,20 @@
       <c r="AY18" s="34"/>
       <c r="AZ18" s="34"/>
       <c r="BA18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
@@ -3146,7 +3109,7 @@
         <v>43735</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -3193,13 +3156,13 @@
       <c r="AY19" s="34"/>
       <c r="AZ19" s="34"/>
       <c r="BA19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="5"/>
@@ -3252,14 +3215,14 @@
       <c r="AY20" s="34"/>
       <c r="AZ20" s="34"/>
       <c r="BA20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="XFD20" s="21"/>
     </row>
     <row r="21" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="5"/>
@@ -3312,13 +3275,13 @@
       <c r="AY21" s="34"/>
       <c r="AZ21" s="34"/>
       <c r="BA21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="5"/>
@@ -3371,20 +3334,20 @@
       <c r="AY22" s="34"/>
       <c r="AZ22" s="34"/>
       <c r="BA22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="13">
         <f>IF(($K$1-F23+1)/E23&gt;=1,1,IF(($K$1-F23+1)/E23&lt;0,0, ($K$1-F23+1)/E23))</f>
         <v>1</v>
       </c>
-      <c r="D23" s="47" t="s">
-        <v>107</v>
+      <c r="D23" s="51" t="s">
+        <v>106</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
@@ -3397,7 +3360,7 @@
         <v>43736</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -3444,19 +3407,19 @@
       <c r="AY23" s="34"/>
       <c r="AZ23" s="34"/>
       <c r="BA23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="13">
         <f>IF(($K$1-F24+1)/E24&gt;=1,1,IF(($K$1-F24+1)/E24&lt;0,0, ($K$1-F24+1)/E24))</f>
         <v>1</v>
       </c>
-      <c r="D24" s="48"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3468,7 +3431,7 @@
         <v>43736</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -3515,19 +3478,19 @@
       <c r="AY24" s="34"/>
       <c r="AZ24" s="34"/>
       <c r="BA24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="13">
         <f>IF(($K$1-F25+1)/E25&gt;=1,1,IF(($K$1-F25+1)/E25&lt;0,0, ($K$1-F25+1)/E25))</f>
         <v>1</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3539,7 +3502,7 @@
         <v>43736</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -3586,19 +3549,19 @@
       <c r="AY25" s="34"/>
       <c r="AZ25" s="34"/>
       <c r="BA25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="13">
         <f>IF(($K$1-F26+1)/E26&gt;=1,1,IF(($K$1-F26+1)/E26&lt;0,0, ($K$1-F26+1)/E26))</f>
         <v>1</v>
       </c>
-      <c r="D26" s="49"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3610,7 +3573,7 @@
         <v>43736</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -3657,13 +3620,13 @@
       <c r="AY26" s="34"/>
       <c r="AZ26" s="34"/>
       <c r="BA26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="5"/>
@@ -3716,20 +3679,20 @@
       <c r="AY27" s="34"/>
       <c r="AZ27" s="34"/>
       <c r="BA27" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A28" s="55"/>
+      <c r="B28" s="36" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="36" t="s">
-        <v>94</v>
       </c>
       <c r="C28" s="13">
         <f>IF(($K$1-F28+1)/E28&gt;=1,1,IF(($K$1-F28+1)/E28&lt;0,0, ($K$1-F28+1)/E28))</f>
         <v>1</v>
       </c>
-      <c r="D28" s="47" t="s">
-        <v>108</v>
+      <c r="D28" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="E28" s="10">
         <f>G28+1-F28</f>
@@ -3742,7 +3705,7 @@
         <v>43739</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -3789,19 +3752,19 @@
       <c r="AY28" s="34"/>
       <c r="AZ28" s="34"/>
       <c r="BA28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D29" s="48"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3813,7 +3776,7 @@
         <v>43739</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -3860,19 +3823,19 @@
       <c r="AY29" s="34"/>
       <c r="AZ29" s="34"/>
       <c r="BA29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D30" s="48"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3884,7 +3847,7 @@
         <v>43739</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -3931,19 +3894,19 @@
       <c r="AY30" s="34"/>
       <c r="AZ30" s="34"/>
       <c r="BA30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D31" s="49"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3955,7 +3918,7 @@
         <v>43739</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -4002,13 +3965,13 @@
       <c r="AY31" s="34"/>
       <c r="AZ31" s="34"/>
       <c r="BA31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="5"/>
@@ -4061,20 +4024,20 @@
       <c r="AY32" s="34"/>
       <c r="AZ32" s="34"/>
       <c r="BA32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D33" s="47" t="s">
-        <v>120</v>
+      <c r="D33" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="E33" s="10">
         <f t="shared" si="1"/>
@@ -4087,7 +4050,7 @@
         <v>43741</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -4134,19 +4097,19 @@
       <c r="AY33" s="34"/>
       <c r="AZ33" s="34"/>
       <c r="BA33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D34" s="48"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4158,7 +4121,7 @@
         <v>43741</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -4205,19 +4168,19 @@
       <c r="AY34" s="34"/>
       <c r="AZ34" s="34"/>
       <c r="BA34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D35" s="48"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4229,7 +4192,7 @@
         <v>43741</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -4276,19 +4239,19 @@
       <c r="AY35" s="34"/>
       <c r="AZ35" s="34"/>
       <c r="BA35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D36" s="49"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4300,7 +4263,7 @@
         <v>43741</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -4347,20 +4310,20 @@
       <c r="AY36" s="34"/>
       <c r="AZ36" s="34"/>
       <c r="BA36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C37" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E37" s="10">
         <f t="shared" si="1"/>
@@ -4373,7 +4336,7 @@
         <v>43745</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -4420,20 +4383,20 @@
       <c r="AY37" s="34"/>
       <c r="AZ37" s="34"/>
       <c r="BA37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="41" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C38" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E38" s="10">
         <f t="shared" si="1"/>
@@ -4446,7 +4409,7 @@
         <v>43749</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -4493,20 +4456,20 @@
       <c r="AY38" s="34"/>
       <c r="AZ38" s="34"/>
       <c r="BA38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="51"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="41" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C39" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E39" s="10">
         <f t="shared" si="1"/>
@@ -4519,7 +4482,7 @@
         <v>43751</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -4566,13 +4529,13 @@
       <c r="AY39" s="34"/>
       <c r="AZ39" s="34"/>
       <c r="BA39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="51"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="41" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="5"/>
@@ -4625,20 +4588,20 @@
       <c r="AY40" s="34"/>
       <c r="AZ40" s="34"/>
       <c r="BA40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="20" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="5"/>
       <c r="E41" s="10"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="35"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
@@ -4683,24 +4646,32 @@
       <c r="AX41" s="34"/>
       <c r="AY41" s="34"/>
       <c r="AZ41" s="34"/>
-      <c r="BA41" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="BA41" s="2"/>
     </row>
     <row r="42" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="C42" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="F42" s="4">
         <v>43742</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4">
+        <v>43743</v>
+      </c>
       <c r="H42" s="35" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -4713,8 +4684,8 @@
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
       <c r="X42" s="21"/>
@@ -4749,17 +4720,29 @@
       <c r="BA42" s="2"/>
     </row>
     <row r="43" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="C43" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F43" s="4">
+        <v>43744</v>
+      </c>
+      <c r="G43" s="4">
+        <v>43749</v>
+      </c>
       <c r="H43" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -4774,12 +4757,12 @@
       <c r="S43" s="21"/>
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
       <c r="AB43" s="21"/>
       <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
@@ -4808,19 +4791,29 @@
       <c r="BA43" s="2"/>
     </row>
     <row r="44" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="C44" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F44" s="4">
+        <v>43744</v>
+      </c>
       <c r="G44" s="4">
-        <v>43751</v>
+        <v>43749</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
@@ -4835,12 +4828,12 @@
       <c r="S44" s="21"/>
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
       <c r="AB44" s="21"/>
       <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
@@ -4869,29 +4862,29 @@
       <c r="BA44" s="2"/>
     </row>
     <row r="45" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="20" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C45" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="E45" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F45" s="4">
-        <v>43742</v>
+        <v>43750</v>
       </c>
       <c r="G45" s="4">
         <v>43751</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>114</v>
+      <c r="H45" s="35" t="s">
+        <v>163</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -4904,14 +4897,14 @@
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
       <c r="AD45" s="21"/>
@@ -4938,20 +4931,20 @@
       <c r="AY45" s="34"/>
       <c r="AZ45" s="34"/>
       <c r="BA45" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C46" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E46" s="10">
         <f t="shared" si="1"/>
@@ -4964,7 +4957,7 @@
         <v>43751</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -5011,20 +5004,20 @@
       <c r="AY46" s="34"/>
       <c r="AZ46" s="34"/>
       <c r="BA46" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C47" s="13">
         <f t="shared" ref="C47" si="2">IF(($K$1-F47+1)/E47&gt;=1,1,IF(($K$1-F47+1)/E47&lt;0,0, ($K$1-F47+1)/E47))</f>
         <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E47" s="10">
         <f t="shared" ref="E47" si="3">G47+1-F47</f>
@@ -5037,7 +5030,7 @@
         <v>43756</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -5084,13 +5077,13 @@
       <c r="AY47" s="34"/>
       <c r="AZ47" s="34"/>
       <c r="BA47" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="40" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="5"/>
@@ -5143,20 +5136,20 @@
       <c r="AY48" s="34"/>
       <c r="AZ48" s="34"/>
       <c r="BA48" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C49" s="13">
         <f t="shared" ref="C49" si="4">IF(($K$1-F49+1)/E49&gt;=1,1,IF(($K$1-F49+1)/E49&lt;0,0, ($K$1-F49+1)/E49))</f>
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E49" s="10">
         <f t="shared" ref="E49:E52" si="5">G49+1-F49</f>
@@ -5169,7 +5162,7 @@
         <v>43758</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -5216,20 +5209,20 @@
       <c r="AY49" s="34"/>
       <c r="AZ49" s="34"/>
       <c r="BA49" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C50" s="13">
         <f>IF(($K$1-F50+1)/E50&gt;=1,1,IF(($K$1-F50+1)/E50&lt;0,0, ($K$1-F50+1)/E50))</f>
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E50" s="10">
         <f t="shared" si="5"/>
@@ -5242,7 +5235,7 @@
         <v>43763</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -5289,20 +5282,20 @@
       <c r="AY50" s="34"/>
       <c r="AZ50" s="34"/>
       <c r="BA50" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C51" s="13">
         <f>IF(($K$1-F51+1)/E51&gt;=1,1,IF(($K$1-F51+1)/E51&lt;0,0, ($K$1-F51+1)/E51))</f>
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E51" s="10">
         <f t="shared" si="5"/>
@@ -5315,7 +5308,7 @@
         <v>43763</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -5362,20 +5355,20 @@
       <c r="AY51" s="34"/>
       <c r="AZ51" s="34"/>
       <c r="BA51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C52" s="13">
         <f>IF(($K$1-F52+1)/E52&gt;=1,1,IF(($K$1-F52+1)/E52&lt;0,0, ($K$1-F52+1)/E52))</f>
         <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" si="5"/>
@@ -5388,7 +5381,7 @@
         <v>43763</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -5435,20 +5428,20 @@
       <c r="AY52" s="34"/>
       <c r="AZ52" s="34"/>
       <c r="BA52" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:C54" si="6">IF(($K$1-F53+1)/E53&gt;=1,1,IF(($K$1-F53+1)/E53&lt;0,0, ($K$1-F53+1)/E53))</f>
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E53" s="10">
         <f t="shared" ref="E53:E59" si="7">G53+1-F53</f>
@@ -5461,7 +5454,7 @@
         <v>43761</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -5508,20 +5501,20 @@
       <c r="AY53" s="34"/>
       <c r="AZ53" s="34"/>
       <c r="BA53" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C54" s="13">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E54" s="10">
         <f t="shared" si="7"/>
@@ -5534,7 +5527,7 @@
         <v>43763</v>
       </c>
       <c r="H54" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -5581,13 +5574,13 @@
       <c r="AY54" s="34"/>
       <c r="AZ54" s="34"/>
       <c r="BA54" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="40" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="5"/>
@@ -5640,20 +5633,20 @@
       <c r="AY55" s="34"/>
       <c r="AZ55" s="34"/>
       <c r="BA55" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="19" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C56" s="13">
         <f t="shared" ref="C56:C62" si="8">IF(($K$1-F56+1)/E56&gt;=1,1,IF(($K$1-F56+1)/E56&lt;0,0, ($K$1-F56+1)/E56))</f>
         <v>1</v>
       </c>
-      <c r="D56" s="47" t="s">
-        <v>169</v>
+      <c r="D56" s="51" t="s">
+        <v>159</v>
       </c>
       <c r="E56" s="10">
         <f t="shared" si="7"/>
@@ -5666,7 +5659,7 @@
         <v>43768</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -5713,19 +5706,19 @@
       <c r="AY56" s="34"/>
       <c r="AZ56" s="34"/>
       <c r="BA56" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="19" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C57" s="13">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D57" s="48"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="10">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -5737,7 +5730,7 @@
         <v>43768</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -5784,19 +5777,19 @@
       <c r="AY57" s="34"/>
       <c r="AZ57" s="34"/>
       <c r="BA57" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C58" s="13">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D58" s="48"/>
+      <c r="D58" s="52"/>
       <c r="E58" s="10">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -5808,7 +5801,7 @@
         <v>43768</v>
       </c>
       <c r="H58" s="35" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -5855,19 +5848,19 @@
       <c r="AY58" s="34"/>
       <c r="AZ58" s="34"/>
       <c r="BA58" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="19" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C59" s="13">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D59" s="49"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="10">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -5879,7 +5872,7 @@
         <v>43768</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -5926,20 +5919,20 @@
       <c r="AY59" s="34"/>
       <c r="AZ59" s="34"/>
       <c r="BA59" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="40" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C60" s="13">
         <f t="shared" si="8"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E60" s="10">
         <f>G60+1-F60</f>
@@ -5952,7 +5945,7 @@
         <v>43772</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -5999,20 +5992,20 @@
       <c r="AY60" s="34"/>
       <c r="AZ60" s="34"/>
       <c r="BA60" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="40" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C61" s="13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E61" s="10">
         <f>G61+1-F61</f>
@@ -6025,7 +6018,7 @@
         <v>43773</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -6072,20 +6065,20 @@
       <c r="AY61" s="8"/>
       <c r="AZ61" s="34"/>
       <c r="BA61" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="52"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="40" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C62" s="13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E62" s="10">
         <f>G62+1-F62</f>
@@ -6098,7 +6091,7 @@
         <v>43774</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6145,7 +6138,7 @@
       <c r="AY62" s="34"/>
       <c r="AZ62" s="8"/>
       <c r="BA62" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:53" x14ac:dyDescent="0.3">
@@ -6533,6 +6526,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A16:A62"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D28:D31"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A5:A15"/>
@@ -6545,11 +6543,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A16:A62"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D28:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/doc/[라떼는말이야]프로젝트_WBS.xlsx
+++ b/doc/[라떼는말이야]프로젝트_WBS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01.dev\git\issuewhatshow\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\git\issuewhatshow\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="177">
   <si>
     <t>공정</t>
   </si>
@@ -534,10 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1차 릴리즈 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문진한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,18 +562,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모듈 별 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시스템 구성도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모듈 병합 및 기능 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>네이버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -666,14 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검색어 수집 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스 수집 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김재현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,22 +686,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>형태소 분석 결과 및 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듈 병합 및 기능 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통합 분석기 소스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모듈 별 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TF-IDF + word2vec 연동 코드 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -738,10 +706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Web Application 개발 및 전처리 모듈연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시각화 응용 기능 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,10 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Web Application 개발 및 전처리 모듈 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전처리/분석 서버 구성 및 자동화 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -890,10 +850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The Freedom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이희수,문진한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,6 +899,54 @@
   </si>
   <si>
     <t>IssueWhatShow(잇슈왓슈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team - Latte is Horse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트별 뉴스 수집 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트별 검색어 수집 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석기별 형태소 분석 결과 및 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집/전처리/분석 모듈 별 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집/전처리/분석 모듈 별 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집/전처리/분석 모듈 병합 및 프로세스 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집/전처리/분석 모듈 병합 및 프로세스 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Application 개발 및 분석 모듈과의 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Application 개발 및 분석 모듈과의 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 전체 시스템 릴리즈 소스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1175,17 +1179,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1201,13 +1194,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,9 +1474,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,6 +1482,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1361,25 +1524,127 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1662,13 +1927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD156"/>
+  <dimension ref="A1:XFD157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1687,42 +1952,42 @@
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="31"/>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="46">
+      <c r="J1" s="53"/>
+      <c r="K1" s="51">
         <v>43774</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
       <c r="AB1" s="32"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
       <c r="AH1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1760,37 +2025,37 @@
       <c r="Z2" s="30"/>
       <c r="AA2" s="30"/>
       <c r="AB2" s="24"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="16"/>
       <c r="AJ2" s="8"/>
     </row>
     <row r="3" spans="1:53" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="48" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1926,18 +2191,18 @@
         <v>65</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:53" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="6">
         <v>43731</v>
       </c>
@@ -2071,11 +2336,11 @@
         <v>43774</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="37" t="s">
@@ -2086,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="10">
         <f>G5+1-F5</f>
@@ -2105,14 +2370,14 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="58"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
+      <c r="T5" s="58"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
@@ -2121,48 +2386,48 @@
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
       <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="58"/>
       <c r="AE5" s="21"/>
       <c r="AF5" s="21"/>
       <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="58"/>
       <c r="AJ5" s="21"/>
       <c r="AK5" s="21"/>
       <c r="AL5" s="34"/>
       <c r="AM5" s="34"/>
       <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="60"/>
       <c r="AQ5" s="34"/>
       <c r="AR5" s="34"/>
       <c r="AS5" s="34"/>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="60"/>
       <c r="AV5" s="34"/>
       <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="93"/>
+      <c r="AZ5" s="60"/>
       <c r="BA5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="37" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="13">
-        <f t="shared" ref="C6:C46" si="0">IF(($K$1-F6+1)/E6&gt;=1,1,IF(($K$1-F6+1)/E6&lt;0,0, ($K$1-F6+1)/E6))</f>
+        <f t="shared" ref="C6:C47" si="0">IF(($K$1-F6+1)/E6&gt;=1,1,IF(($K$1-F6+1)/E6&lt;0,0, ($K$1-F6+1)/E6))</f>
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="10">
-        <f t="shared" ref="E6:E46" si="1">G6+1-F6</f>
+        <f t="shared" ref="E6:E47" si="1">G6+1-F6</f>
         <v>1</v>
       </c>
       <c r="F6" s="4">
@@ -2178,14 +2443,14 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="58"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
+      <c r="T6" s="58"/>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
@@ -2194,36 +2459,36 @@
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="58"/>
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
       <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
+      <c r="AH6" s="79"/>
+      <c r="AI6" s="58"/>
       <c r="AJ6" s="21"/>
       <c r="AK6" s="21"/>
       <c r="AL6" s="34"/>
       <c r="AM6" s="34"/>
       <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-      <c r="AP6" s="34"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="60"/>
       <c r="AQ6" s="34"/>
       <c r="AR6" s="34"/>
       <c r="AS6" s="34"/>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="34"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="60"/>
       <c r="AV6" s="34"/>
       <c r="AW6" s="34"/>
-      <c r="AX6" s="34"/>
-      <c r="AY6" s="34"/>
-      <c r="AZ6" s="34"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="60"/>
       <c r="BA6" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="38" t="s">
         <v>69</v>
       </c>
@@ -2251,14 +2516,14 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
+      <c r="T7" s="58"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
@@ -2267,55 +2532,55 @@
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="58"/>
       <c r="AE7" s="21"/>
       <c r="AF7" s="21"/>
       <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="58"/>
       <c r="AJ7" s="21"/>
       <c r="AK7" s="21"/>
       <c r="AL7" s="34"/>
       <c r="AM7" s="34"/>
       <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
-      <c r="AP7" s="34"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="60"/>
       <c r="AQ7" s="34"/>
       <c r="AR7" s="34"/>
       <c r="AS7" s="34"/>
-      <c r="AT7" s="34"/>
-      <c r="AU7" s="34"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="60"/>
       <c r="AV7" s="34"/>
       <c r="AW7" s="34"/>
-      <c r="AX7" s="34"/>
-      <c r="AY7" s="34"/>
-      <c r="AZ7" s="34"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="93"/>
+      <c r="AZ7" s="60"/>
       <c r="BA7" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(($K$1-F8+1)/E8&gt;=1,1,IF(($K$1-F8+1)/E8&lt;0,0, ($K$1-F8+1)/E8))</f>
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="10">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>G8+1-F8</f>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>43736</v>
       </c>
       <c r="G8" s="4">
-        <v>43737</v>
+        <v>43736</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>71</v>
@@ -2324,14 +2589,14 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="58"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
+      <c r="T8" s="58"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
@@ -2340,52 +2605,52 @@
       <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="58"/>
       <c r="AE8" s="21"/>
       <c r="AF8" s="21"/>
       <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="58"/>
       <c r="AJ8" s="21"/>
       <c r="AK8" s="21"/>
       <c r="AL8" s="34"/>
       <c r="AM8" s="34"/>
       <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="34"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="60"/>
       <c r="AQ8" s="34"/>
       <c r="AR8" s="34"/>
       <c r="AS8" s="34"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="34"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="60"/>
       <c r="AV8" s="34"/>
       <c r="AW8" s="34"/>
-      <c r="AX8" s="34"/>
-      <c r="AY8" s="34"/>
-      <c r="AZ8" s="34"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="60"/>
       <c r="BA8" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="37" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="C9" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4">
-        <v>43738</v>
+        <v>43737</v>
       </c>
       <c r="G9" s="4">
         <v>43751</v>
@@ -2397,14 +2662,14 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="59"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="T9" s="59"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
@@ -2413,45 +2678,45 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="21"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="58"/>
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="58"/>
       <c r="AJ9" s="21"/>
       <c r="AK9" s="21"/>
       <c r="AL9" s="34"/>
       <c r="AM9" s="34"/>
       <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="60"/>
       <c r="AQ9" s="34"/>
       <c r="AR9" s="34"/>
       <c r="AS9" s="34"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="60"/>
       <c r="AV9" s="34"/>
       <c r="AW9" s="34"/>
-      <c r="AX9" s="34"/>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="93"/>
+      <c r="AZ9" s="60"/>
       <c r="BA9" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="38" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="C10" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="1"/>
@@ -2470,14 +2735,14 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="58"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
+      <c r="T10" s="58"/>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
@@ -2486,45 +2751,45 @@
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="8"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="59"/>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="21"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="58"/>
       <c r="AJ10" s="21"/>
       <c r="AK10" s="21"/>
       <c r="AL10" s="34"/>
       <c r="AM10" s="34"/>
       <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
+      <c r="AO10" s="89"/>
+      <c r="AP10" s="60"/>
       <c r="AQ10" s="34"/>
       <c r="AR10" s="34"/>
       <c r="AS10" s="34"/>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34"/>
+      <c r="AT10" s="89"/>
+      <c r="AU10" s="60"/>
       <c r="AV10" s="34"/>
       <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
-      <c r="AZ10" s="34"/>
+      <c r="AX10" s="89"/>
+      <c r="AY10" s="93"/>
+      <c r="AZ10" s="60"/>
       <c r="BA10" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="37" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C11" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="1"/>
@@ -2543,14 +2808,14 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="58"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
+      <c r="T11" s="58"/>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
@@ -2559,36 +2824,36 @@
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
       <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="58"/>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="8"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="59"/>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="34"/>
+      <c r="AO11" s="80"/>
+      <c r="AP11" s="60"/>
       <c r="AQ11" s="34"/>
       <c r="AR11" s="34"/>
       <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="34"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="60"/>
       <c r="AV11" s="34"/>
       <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
+      <c r="AX11" s="89"/>
+      <c r="AY11" s="93"/>
+      <c r="AZ11" s="60"/>
       <c r="BA11" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="38" t="s">
         <v>40</v>
       </c>
@@ -2597,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="1"/>
@@ -2616,14 +2881,14 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="58"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
+      <c r="T12" s="58"/>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
@@ -2632,36 +2897,36 @@
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="58"/>
       <c r="AE12" s="21"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="58"/>
       <c r="AJ12" s="21"/>
       <c r="AK12" s="21"/>
       <c r="AL12" s="34"/>
       <c r="AM12" s="34"/>
       <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="8"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="59"/>
       <c r="AQ12" s="8"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="34"/>
+      <c r="AT12" s="80"/>
+      <c r="AU12" s="60"/>
       <c r="AV12" s="34"/>
       <c r="AW12" s="34"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="34"/>
-      <c r="AZ12" s="34"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="93"/>
+      <c r="AZ12" s="60"/>
       <c r="BA12" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="38" t="s">
         <v>41</v>
       </c>
@@ -2670,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="1"/>
@@ -2689,14 +2954,14 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="58"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
+      <c r="T13" s="58"/>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -2705,36 +2970,36 @@
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="58"/>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="58"/>
       <c r="AJ13" s="21"/>
       <c r="AK13" s="21"/>
       <c r="AL13" s="34"/>
       <c r="AM13" s="34"/>
       <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-      <c r="AP13" s="34"/>
+      <c r="AO13" s="89"/>
+      <c r="AP13" s="60"/>
       <c r="AQ13" s="34"/>
       <c r="AR13" s="34"/>
       <c r="AS13" s="34"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="8"/>
+      <c r="AT13" s="89"/>
+      <c r="AU13" s="59"/>
       <c r="AV13" s="8"/>
       <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="34"/>
-      <c r="AZ13" s="34"/>
+      <c r="AX13" s="80"/>
+      <c r="AY13" s="93"/>
+      <c r="AZ13" s="60"/>
       <c r="BA13" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="37" t="s">
         <v>42</v>
       </c>
@@ -2743,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="1"/>
@@ -2762,14 +3027,14 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="58"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
+      <c r="T14" s="58"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -2778,179 +3043,179 @@
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="58"/>
       <c r="AE14" s="21"/>
       <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="58"/>
       <c r="AJ14" s="21"/>
       <c r="AK14" s="21"/>
       <c r="AL14" s="34"/>
       <c r="AM14" s="34"/>
       <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="34"/>
+      <c r="AO14" s="89"/>
+      <c r="AP14" s="60"/>
       <c r="AQ14" s="34"/>
       <c r="AR14" s="34"/>
       <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
-      <c r="AU14" s="34"/>
+      <c r="AT14" s="89"/>
+      <c r="AU14" s="60"/>
       <c r="AV14" s="34"/>
       <c r="AW14" s="34"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="34"/>
+      <c r="AX14" s="89"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="60"/>
       <c r="BA14" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="88"/>
+      <c r="B15" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="70">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="73">
         <v>43774</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="73">
         <v>43774</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="34"/>
-      <c r="AS15" s="34"/>
-      <c r="AT15" s="34"/>
-      <c r="AU15" s="34"/>
-      <c r="AV15" s="34"/>
-      <c r="AW15" s="34"/>
-      <c r="AX15" s="34"/>
-      <c r="AY15" s="34"/>
-      <c r="AZ15" s="8"/>
+      <c r="H15" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="76"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="77"/>
+      <c r="AM15" s="77"/>
+      <c r="AN15" s="77"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="77"/>
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="77"/>
+      <c r="AT15" s="90"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="77"/>
+      <c r="AW15" s="77"/>
+      <c r="AX15" s="90"/>
+      <c r="AY15" s="94"/>
+      <c r="AZ15" s="92"/>
       <c r="BA15" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="67"/>
+      <c r="AM16" s="67"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="91"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="67"/>
+      <c r="AR16" s="67"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="68"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="67"/>
+      <c r="AX16" s="91"/>
+      <c r="AY16" s="95"/>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="34"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="34"/>
-      <c r="BA16" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="C17" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="1"/>
@@ -2969,14 +3234,14 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="58"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
+      <c r="T17" s="58"/>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
@@ -2985,45 +3250,45 @@
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="58"/>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
       <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="58"/>
       <c r="AJ17" s="21"/>
       <c r="AK17" s="21"/>
       <c r="AL17" s="34"/>
       <c r="AM17" s="34"/>
       <c r="AN17" s="34"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="34"/>
+      <c r="AO17" s="89"/>
+      <c r="AP17" s="60"/>
       <c r="AQ17" s="34"/>
       <c r="AR17" s="34"/>
       <c r="AS17" s="34"/>
-      <c r="AT17" s="34"/>
-      <c r="AU17" s="34"/>
+      <c r="AT17" s="89"/>
+      <c r="AU17" s="60"/>
       <c r="AV17" s="34"/>
       <c r="AW17" s="34"/>
-      <c r="AX17" s="34"/>
-      <c r="AY17" s="34"/>
-      <c r="AZ17" s="34"/>
+      <c r="AX17" s="89"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="60"/>
       <c r="BA17" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="19" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
@@ -3042,14 +3307,14 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="58"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
+      <c r="T18" s="58"/>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
@@ -3058,45 +3323,45 @@
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="58"/>
       <c r="AE18" s="21"/>
       <c r="AF18" s="21"/>
       <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="58"/>
       <c r="AJ18" s="21"/>
       <c r="AK18" s="21"/>
       <c r="AL18" s="34"/>
       <c r="AM18" s="34"/>
       <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
+      <c r="AO18" s="89"/>
+      <c r="AP18" s="60"/>
       <c r="AQ18" s="34"/>
       <c r="AR18" s="34"/>
       <c r="AS18" s="34"/>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="34"/>
+      <c r="AT18" s="89"/>
+      <c r="AU18" s="60"/>
       <c r="AV18" s="34"/>
       <c r="AW18" s="34"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="34"/>
+      <c r="AX18" s="89"/>
+      <c r="AY18" s="93"/>
+      <c r="AZ18" s="60"/>
       <c r="BA18" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
@@ -3115,14 +3380,14 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="58"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
+      <c r="T19" s="58"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
@@ -3131,57 +3396,71 @@
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="58"/>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
       <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="58"/>
       <c r="AJ19" s="21"/>
       <c r="AK19" s="21"/>
       <c r="AL19" s="34"/>
       <c r="AM19" s="34"/>
       <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
+      <c r="AO19" s="89"/>
+      <c r="AP19" s="60"/>
       <c r="AQ19" s="34"/>
       <c r="AR19" s="34"/>
       <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
+      <c r="AT19" s="89"/>
+      <c r="AU19" s="60"/>
       <c r="AV19" s="34"/>
       <c r="AW19" s="34"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="34"/>
-      <c r="AZ19" s="34"/>
+      <c r="AX19" s="89"/>
+      <c r="AY19" s="93"/>
+      <c r="AZ19" s="60"/>
       <c r="BA19" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>43736</v>
+      </c>
+      <c r="G20" s="4">
+        <v>43736</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>66</v>
+      </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="58"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
+      <c r="T20" s="58"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -3190,58 +3469,55 @@
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="58"/>
       <c r="AE20" s="21"/>
       <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="21"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="58"/>
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="34"/>
       <c r="AM20" s="34"/>
       <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
+      <c r="AO20" s="89"/>
+      <c r="AP20" s="60"/>
       <c r="AQ20" s="34"/>
       <c r="AR20" s="34"/>
       <c r="AS20" s="34"/>
-      <c r="AT20" s="34"/>
-      <c r="AU20" s="34"/>
+      <c r="AT20" s="89"/>
+      <c r="AU20" s="60"/>
       <c r="AV20" s="34"/>
       <c r="AW20" s="34"/>
-      <c r="AX20" s="34"/>
-      <c r="AY20" s="34"/>
-      <c r="AZ20" s="34"/>
-      <c r="BA20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="XFD20" s="21"/>
+      <c r="AX20" s="89"/>
+      <c r="AY20" s="93"/>
+      <c r="AZ20" s="60"/>
+      <c r="BA20" s="2"/>
     </row>
     <row r="21" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="41" t="s">
-        <v>111</v>
+      <c r="A21" s="46"/>
+      <c r="B21" s="39" t="s">
+        <v>171</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="5"/>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="33"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="58"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
+      <c r="T21" s="58"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
@@ -3250,38 +3526,39 @@
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="58"/>
       <c r="AE21" s="21"/>
       <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="21"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="58"/>
       <c r="AJ21" s="21"/>
       <c r="AK21" s="21"/>
       <c r="AL21" s="34"/>
       <c r="AM21" s="34"/>
       <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="34"/>
+      <c r="AO21" s="89"/>
+      <c r="AP21" s="60"/>
       <c r="AQ21" s="34"/>
       <c r="AR21" s="34"/>
       <c r="AS21" s="34"/>
-      <c r="AT21" s="34"/>
-      <c r="AU21" s="34"/>
+      <c r="AT21" s="89"/>
+      <c r="AU21" s="60"/>
       <c r="AV21" s="34"/>
       <c r="AW21" s="34"/>
-      <c r="AX21" s="34"/>
-      <c r="AY21" s="34"/>
-      <c r="AZ21" s="34"/>
+      <c r="AX21" s="89"/>
+      <c r="AY21" s="93"/>
+      <c r="AZ21" s="60"/>
       <c r="BA21" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="XFD21" s="21"/>
     </row>
     <row r="22" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="20" t="s">
-        <v>105</v>
+      <c r="A22" s="46"/>
+      <c r="B22" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="5"/>
@@ -3293,14 +3570,14 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="58"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
+      <c r="T22" s="58"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
@@ -3309,71 +3586,57 @@
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="58"/>
       <c r="AE22" s="21"/>
       <c r="AF22" s="21"/>
       <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="58"/>
       <c r="AJ22" s="21"/>
       <c r="AK22" s="21"/>
       <c r="AL22" s="34"/>
       <c r="AM22" s="34"/>
       <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
+      <c r="AO22" s="89"/>
+      <c r="AP22" s="60"/>
       <c r="AQ22" s="34"/>
       <c r="AR22" s="34"/>
       <c r="AS22" s="34"/>
-      <c r="AT22" s="34"/>
-      <c r="AU22" s="34"/>
+      <c r="AT22" s="89"/>
+      <c r="AU22" s="60"/>
       <c r="AV22" s="34"/>
       <c r="AW22" s="34"/>
-      <c r="AX22" s="34"/>
-      <c r="AY22" s="34"/>
-      <c r="AZ22" s="34"/>
+      <c r="AX22" s="89"/>
+      <c r="AY22" s="93"/>
+      <c r="AZ22" s="60"/>
       <c r="BA22" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="13">
-        <f>IF(($K$1-F23+1)/E23&gt;=1,1,IF(($K$1-F23+1)/E23&lt;0,0, ($K$1-F23+1)/E23))</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>43736</v>
-      </c>
-      <c r="G23" s="4">
-        <v>43736</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>90</v>
-      </c>
+      <c r="A23" s="46"/>
+      <c r="B23" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="21"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="58"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
+      <c r="T23" s="58"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
@@ -3382,69 +3645,71 @@
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="58"/>
       <c r="AE23" s="21"/>
       <c r="AF23" s="21"/>
       <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="58"/>
       <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
       <c r="AL23" s="34"/>
       <c r="AM23" s="34"/>
       <c r="AN23" s="34"/>
-      <c r="AO23" s="34"/>
-      <c r="AP23" s="34"/>
+      <c r="AO23" s="89"/>
+      <c r="AP23" s="60"/>
       <c r="AQ23" s="34"/>
       <c r="AR23" s="34"/>
       <c r="AS23" s="34"/>
-      <c r="AT23" s="34"/>
-      <c r="AU23" s="34"/>
+      <c r="AT23" s="89"/>
+      <c r="AU23" s="60"/>
       <c r="AV23" s="34"/>
       <c r="AW23" s="34"/>
-      <c r="AX23" s="34"/>
-      <c r="AY23" s="34"/>
-      <c r="AZ23" s="34"/>
+      <c r="AX23" s="89"/>
+      <c r="AY23" s="93"/>
+      <c r="AZ23" s="60"/>
       <c r="BA23" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C24" s="13">
         <f>IF(($K$1-F24+1)/E24&gt;=1,1,IF(($K$1-F24+1)/E24&lt;0,0, ($K$1-F24+1)/E24))</f>
         <v>1</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="43" t="s">
+        <v>168</v>
+      </c>
       <c r="E24" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>43736</v>
+        <v>43737</v>
       </c>
       <c r="G24" s="4">
-        <v>43736</v>
+        <v>43737</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="21"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="59"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
+      <c r="T24" s="58"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
@@ -3453,69 +3718,69 @@
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="58"/>
       <c r="AE24" s="21"/>
       <c r="AF24" s="21"/>
       <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
+      <c r="AH24" s="79"/>
+      <c r="AI24" s="58"/>
       <c r="AJ24" s="21"/>
       <c r="AK24" s="21"/>
       <c r="AL24" s="34"/>
       <c r="AM24" s="34"/>
       <c r="AN24" s="34"/>
-      <c r="AO24" s="34"/>
-      <c r="AP24" s="34"/>
+      <c r="AO24" s="89"/>
+      <c r="AP24" s="60"/>
       <c r="AQ24" s="34"/>
       <c r="AR24" s="34"/>
       <c r="AS24" s="34"/>
-      <c r="AT24" s="34"/>
-      <c r="AU24" s="34"/>
+      <c r="AT24" s="89"/>
+      <c r="AU24" s="60"/>
       <c r="AV24" s="34"/>
       <c r="AW24" s="34"/>
-      <c r="AX24" s="34"/>
-      <c r="AY24" s="34"/>
-      <c r="AZ24" s="34"/>
+      <c r="AX24" s="89"/>
+      <c r="AY24" s="93"/>
+      <c r="AZ24" s="60"/>
       <c r="BA24" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C25" s="13">
         <f>IF(($K$1-F25+1)/E25&gt;=1,1,IF(($K$1-F25+1)/E25&lt;0,0, ($K$1-F25+1)/E25))</f>
         <v>1</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F25" s="4">
-        <v>43736</v>
+        <v>43737</v>
       </c>
       <c r="G25" s="4">
-        <v>43736</v>
+        <v>43737</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="21"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="59"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
+      <c r="T25" s="58"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
@@ -3524,69 +3789,69 @@
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="58"/>
       <c r="AE25" s="21"/>
       <c r="AF25" s="21"/>
       <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="58"/>
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="34"/>
       <c r="AM25" s="34"/>
       <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
+      <c r="AO25" s="89"/>
+      <c r="AP25" s="60"/>
       <c r="AQ25" s="34"/>
       <c r="AR25" s="34"/>
       <c r="AS25" s="34"/>
-      <c r="AT25" s="34"/>
-      <c r="AU25" s="34"/>
+      <c r="AT25" s="89"/>
+      <c r="AU25" s="60"/>
       <c r="AV25" s="34"/>
       <c r="AW25" s="34"/>
-      <c r="AX25" s="34"/>
-      <c r="AY25" s="34"/>
-      <c r="AZ25" s="34"/>
+      <c r="AX25" s="89"/>
+      <c r="AY25" s="93"/>
+      <c r="AZ25" s="60"/>
       <c r="BA25" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C26" s="13">
         <f>IF(($K$1-F26+1)/E26&gt;=1,1,IF(($K$1-F26+1)/E26&lt;0,0, ($K$1-F26+1)/E26))</f>
         <v>1</v>
       </c>
-      <c r="D26" s="53"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>43736</v>
+        <v>43737</v>
       </c>
       <c r="G26" s="4">
-        <v>43736</v>
+        <v>43737</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="21"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="59"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
+      <c r="T26" s="58"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
@@ -3595,57 +3860,69 @@
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="58"/>
       <c r="AE26" s="21"/>
       <c r="AF26" s="21"/>
       <c r="AG26" s="21"/>
-      <c r="AH26" s="21"/>
-      <c r="AI26" s="21"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="58"/>
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="34"/>
       <c r="AM26" s="34"/>
       <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="34"/>
+      <c r="AO26" s="89"/>
+      <c r="AP26" s="60"/>
       <c r="AQ26" s="34"/>
       <c r="AR26" s="34"/>
       <c r="AS26" s="34"/>
-      <c r="AT26" s="34"/>
-      <c r="AU26" s="34"/>
+      <c r="AT26" s="89"/>
+      <c r="AU26" s="60"/>
       <c r="AV26" s="34"/>
       <c r="AW26" s="34"/>
-      <c r="AX26" s="34"/>
-      <c r="AY26" s="34"/>
-      <c r="AZ26" s="34"/>
+      <c r="AX26" s="89"/>
+      <c r="AY26" s="93"/>
+      <c r="AZ26" s="60"/>
       <c r="BA26" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="13">
+        <f>IF(($K$1-F27+1)/E27&gt;=1,1,IF(($K$1-F27+1)/E27&lt;0,0, ($K$1-F27+1)/E27))</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>43737</v>
+      </c>
+      <c r="G27" s="4">
+        <v>43737</v>
+      </c>
+      <c r="H27" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="14"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="59"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
+      <c r="T27" s="58"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
@@ -3654,71 +3931,57 @@
       <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
       <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="58"/>
       <c r="AE27" s="21"/>
       <c r="AF27" s="21"/>
       <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
-      <c r="AI27" s="21"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="58"/>
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="34"/>
       <c r="AM27" s="34"/>
       <c r="AN27" s="34"/>
-      <c r="AO27" s="34"/>
-      <c r="AP27" s="34"/>
+      <c r="AO27" s="89"/>
+      <c r="AP27" s="60"/>
       <c r="AQ27" s="34"/>
       <c r="AR27" s="34"/>
       <c r="AS27" s="34"/>
-      <c r="AT27" s="34"/>
-      <c r="AU27" s="34"/>
+      <c r="AT27" s="89"/>
+      <c r="AU27" s="60"/>
       <c r="AV27" s="34"/>
       <c r="AW27" s="34"/>
-      <c r="AX27" s="34"/>
-      <c r="AY27" s="34"/>
-      <c r="AZ27" s="34"/>
+      <c r="AX27" s="89"/>
+      <c r="AY27" s="93"/>
+      <c r="AZ27" s="60"/>
       <c r="BA27" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="13">
-        <f>IF(($K$1-F28+1)/E28&gt;=1,1,IF(($K$1-F28+1)/E28&lt;0,0, ($K$1-F28+1)/E28))</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="10">
-        <f>G28+1-F28</f>
-        <v>3</v>
-      </c>
-      <c r="F28" s="4">
-        <v>43737</v>
-      </c>
-      <c r="G28" s="4">
-        <v>43739</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="A28" s="46"/>
+      <c r="B28" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
+      <c r="T28" s="58"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -3727,69 +3990,71 @@
       <c r="Z28" s="21"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="58"/>
       <c r="AE28" s="21"/>
       <c r="AF28" s="21"/>
       <c r="AG28" s="21"/>
-      <c r="AH28" s="21"/>
-      <c r="AI28" s="21"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="58"/>
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="34"/>
       <c r="AM28" s="34"/>
       <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
+      <c r="AO28" s="89"/>
+      <c r="AP28" s="60"/>
       <c r="AQ28" s="34"/>
       <c r="AR28" s="34"/>
       <c r="AS28" s="34"/>
-      <c r="AT28" s="34"/>
-      <c r="AU28" s="34"/>
+      <c r="AT28" s="89"/>
+      <c r="AU28" s="60"/>
       <c r="AV28" s="34"/>
       <c r="AW28" s="34"/>
-      <c r="AX28" s="34"/>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
+      <c r="AX28" s="89"/>
+      <c r="AY28" s="93"/>
+      <c r="AZ28" s="60"/>
       <c r="BA28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C29" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(($K$1-F29+1)/E29&gt;=1,1,IF(($K$1-F29+1)/E29&lt;0,0, ($K$1-F29+1)/E29))</f>
         <v>1</v>
       </c>
-      <c r="D29" s="52"/>
+      <c r="D29" s="43" t="s">
+        <v>167</v>
+      </c>
       <c r="E29" s="10">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>G29+1-F29</f>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
-        <v>43737</v>
+        <v>43738</v>
       </c>
       <c r="G29" s="4">
         <v>43739</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="8"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="58"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
+      <c r="T29" s="58"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -3798,69 +4063,69 @@
       <c r="Z29" s="21"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="58"/>
       <c r="AE29" s="21"/>
       <c r="AF29" s="21"/>
       <c r="AG29" s="21"/>
-      <c r="AH29" s="21"/>
-      <c r="AI29" s="21"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="58"/>
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
       <c r="AL29" s="34"/>
       <c r="AM29" s="34"/>
       <c r="AN29" s="34"/>
-      <c r="AO29" s="34"/>
-      <c r="AP29" s="34"/>
+      <c r="AO29" s="89"/>
+      <c r="AP29" s="60"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="34"/>
       <c r="AS29" s="34"/>
-      <c r="AT29" s="34"/>
-      <c r="AU29" s="34"/>
+      <c r="AT29" s="89"/>
+      <c r="AU29" s="60"/>
       <c r="AV29" s="34"/>
       <c r="AW29" s="34"/>
-      <c r="AX29" s="34"/>
-      <c r="AY29" s="34"/>
-      <c r="AZ29" s="34"/>
+      <c r="AX29" s="89"/>
+      <c r="AY29" s="93"/>
+      <c r="AZ29" s="60"/>
       <c r="BA29" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C30" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D30" s="52"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="10">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="4">
-        <v>43737</v>
+        <v>43738</v>
       </c>
       <c r="G30" s="4">
         <v>43739</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="8"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="58"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
+      <c r="T30" s="58"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -3869,69 +4134,69 @@
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="58"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
       <c r="AG30" s="21"/>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="21"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="58"/>
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="34"/>
       <c r="AM30" s="34"/>
       <c r="AN30" s="34"/>
-      <c r="AO30" s="34"/>
-      <c r="AP30" s="34"/>
+      <c r="AO30" s="89"/>
+      <c r="AP30" s="60"/>
       <c r="AQ30" s="34"/>
       <c r="AR30" s="34"/>
       <c r="AS30" s="34"/>
-      <c r="AT30" s="34"/>
-      <c r="AU30" s="34"/>
+      <c r="AT30" s="89"/>
+      <c r="AU30" s="60"/>
       <c r="AV30" s="34"/>
       <c r="AW30" s="34"/>
-      <c r="AX30" s="34"/>
-      <c r="AY30" s="34"/>
-      <c r="AZ30" s="34"/>
+      <c r="AX30" s="89"/>
+      <c r="AY30" s="93"/>
+      <c r="AZ30" s="60"/>
       <c r="BA30" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="36" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="36" t="s">
-        <v>87</v>
       </c>
       <c r="C31" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D31" s="53"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="10">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="4">
-        <v>43737</v>
+        <v>43738</v>
       </c>
       <c r="G31" s="4">
         <v>43739</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="8"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="58"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
+      <c r="T31" s="58"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -3940,57 +4205,69 @@
       <c r="Z31" s="21"/>
       <c r="AA31" s="21"/>
       <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="58"/>
       <c r="AE31" s="21"/>
       <c r="AF31" s="21"/>
       <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
+      <c r="AH31" s="79"/>
+      <c r="AI31" s="58"/>
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="34"/>
       <c r="AM31" s="34"/>
       <c r="AN31" s="34"/>
-      <c r="AO31" s="34"/>
-      <c r="AP31" s="34"/>
+      <c r="AO31" s="89"/>
+      <c r="AP31" s="60"/>
       <c r="AQ31" s="34"/>
       <c r="AR31" s="34"/>
       <c r="AS31" s="34"/>
-      <c r="AT31" s="34"/>
-      <c r="AU31" s="34"/>
+      <c r="AT31" s="89"/>
+      <c r="AU31" s="60"/>
       <c r="AV31" s="34"/>
       <c r="AW31" s="34"/>
-      <c r="AX31" s="34"/>
-      <c r="AY31" s="34"/>
-      <c r="AZ31" s="34"/>
+      <c r="AX31" s="89"/>
+      <c r="AY31" s="93"/>
+      <c r="AZ31" s="60"/>
       <c r="BA31" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:53 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="11"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43738</v>
+      </c>
+      <c r="G32" s="4">
+        <v>43739</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
+      <c r="T32" s="58"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -3999,71 +4276,57 @@
       <c r="Z32" s="21"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="58"/>
       <c r="AE32" s="21"/>
       <c r="AF32" s="21"/>
       <c r="AG32" s="21"/>
-      <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
+      <c r="AH32" s="79"/>
+      <c r="AI32" s="58"/>
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="34"/>
       <c r="AM32" s="34"/>
       <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="34"/>
+      <c r="AO32" s="89"/>
+      <c r="AP32" s="60"/>
       <c r="AQ32" s="34"/>
       <c r="AR32" s="34"/>
       <c r="AS32" s="34"/>
-      <c r="AT32" s="34"/>
-      <c r="AU32" s="34"/>
+      <c r="AT32" s="89"/>
+      <c r="AU32" s="60"/>
       <c r="AV32" s="34"/>
       <c r="AW32" s="34"/>
-      <c r="AX32" s="34"/>
-      <c r="AY32" s="34"/>
-      <c r="AZ32" s="34"/>
+      <c r="AX32" s="89"/>
+      <c r="AY32" s="93"/>
+      <c r="AZ32" s="60"/>
       <c r="BA32" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
-      <c r="B33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F33" s="4">
-        <v>43740</v>
-      </c>
-      <c r="G33" s="4">
-        <v>43741</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="A33" s="46"/>
+      <c r="B33" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="58"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="58"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -4072,44 +4335,46 @@
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
       <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
+      <c r="AC33" s="79"/>
+      <c r="AD33" s="58"/>
       <c r="AE33" s="21"/>
       <c r="AF33" s="21"/>
       <c r="AG33" s="21"/>
-      <c r="AH33" s="21"/>
-      <c r="AI33" s="21"/>
+      <c r="AH33" s="79"/>
+      <c r="AI33" s="58"/>
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="34"/>
       <c r="AM33" s="34"/>
       <c r="AN33" s="34"/>
-      <c r="AO33" s="34"/>
-      <c r="AP33" s="34"/>
+      <c r="AO33" s="89"/>
+      <c r="AP33" s="60"/>
       <c r="AQ33" s="34"/>
       <c r="AR33" s="34"/>
       <c r="AS33" s="34"/>
-      <c r="AT33" s="34"/>
-      <c r="AU33" s="34"/>
+      <c r="AT33" s="89"/>
+      <c r="AU33" s="60"/>
       <c r="AV33" s="34"/>
       <c r="AW33" s="34"/>
-      <c r="AX33" s="34"/>
-      <c r="AY33" s="34"/>
-      <c r="AZ33" s="34"/>
+      <c r="AX33" s="89"/>
+      <c r="AY33" s="93"/>
+      <c r="AZ33" s="60"/>
       <c r="BA33" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D34" s="52"/>
+      <c r="D34" s="43" t="s">
+        <v>169</v>
+      </c>
       <c r="E34" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4120,21 +4385,21 @@
       <c r="G34" s="4">
         <v>43741</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>102</v>
+      <c r="H34" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="58"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
-      <c r="T34" s="21"/>
+      <c r="T34" s="58"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -4143,44 +4408,44 @@
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="58"/>
       <c r="AE34" s="21"/>
       <c r="AF34" s="21"/>
       <c r="AG34" s="21"/>
-      <c r="AH34" s="21"/>
-      <c r="AI34" s="21"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="58"/>
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="34"/>
       <c r="AM34" s="34"/>
       <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
+      <c r="AO34" s="89"/>
+      <c r="AP34" s="60"/>
       <c r="AQ34" s="34"/>
       <c r="AR34" s="34"/>
       <c r="AS34" s="34"/>
-      <c r="AT34" s="34"/>
-      <c r="AU34" s="34"/>
+      <c r="AT34" s="89"/>
+      <c r="AU34" s="60"/>
       <c r="AV34" s="34"/>
       <c r="AW34" s="34"/>
-      <c r="AX34" s="34"/>
-      <c r="AY34" s="34"/>
-      <c r="AZ34" s="34"/>
+      <c r="AX34" s="89"/>
+      <c r="AY34" s="93"/>
+      <c r="AZ34" s="60"/>
       <c r="BA34" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C35" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D35" s="52"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4191,21 +4456,21 @@
       <c r="G35" s="4">
         <v>43741</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>103</v>
+      <c r="H35" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="58"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
-      <c r="T35" s="21"/>
+      <c r="T35" s="58"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -4214,44 +4479,44 @@
       <c r="Z35" s="21"/>
       <c r="AA35" s="21"/>
       <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="58"/>
       <c r="AE35" s="21"/>
       <c r="AF35" s="21"/>
       <c r="AG35" s="21"/>
-      <c r="AH35" s="21"/>
-      <c r="AI35" s="21"/>
+      <c r="AH35" s="79"/>
+      <c r="AI35" s="58"/>
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="34"/>
       <c r="AM35" s="34"/>
       <c r="AN35" s="34"/>
-      <c r="AO35" s="34"/>
-      <c r="AP35" s="34"/>
+      <c r="AO35" s="89"/>
+      <c r="AP35" s="60"/>
       <c r="AQ35" s="34"/>
       <c r="AR35" s="34"/>
       <c r="AS35" s="34"/>
-      <c r="AT35" s="34"/>
-      <c r="AU35" s="34"/>
+      <c r="AT35" s="89"/>
+      <c r="AU35" s="60"/>
       <c r="AV35" s="34"/>
       <c r="AW35" s="34"/>
-      <c r="AX35" s="34"/>
-      <c r="AY35" s="34"/>
-      <c r="AZ35" s="34"/>
+      <c r="AX35" s="89"/>
+      <c r="AY35" s="93"/>
+      <c r="AZ35" s="60"/>
       <c r="BA35" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C36" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D36" s="53"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4263,20 +4528,20 @@
         <v>43741</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="58"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
-      <c r="T36" s="21"/>
+      <c r="T36" s="58"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -4285,335 +4550,347 @@
       <c r="Z36" s="21"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
+      <c r="AC36" s="79"/>
+      <c r="AD36" s="58"/>
       <c r="AE36" s="21"/>
       <c r="AF36" s="21"/>
       <c r="AG36" s="21"/>
-      <c r="AH36" s="21"/>
-      <c r="AI36" s="21"/>
+      <c r="AH36" s="79"/>
+      <c r="AI36" s="58"/>
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="34"/>
       <c r="AM36" s="34"/>
       <c r="AN36" s="34"/>
-      <c r="AO36" s="34"/>
-      <c r="AP36" s="34"/>
+      <c r="AO36" s="89"/>
+      <c r="AP36" s="60"/>
       <c r="AQ36" s="34"/>
       <c r="AR36" s="34"/>
       <c r="AS36" s="34"/>
-      <c r="AT36" s="34"/>
-      <c r="AU36" s="34"/>
+      <c r="AT36" s="89"/>
+      <c r="AU36" s="60"/>
       <c r="AV36" s="34"/>
       <c r="AW36" s="34"/>
-      <c r="AX36" s="34"/>
-      <c r="AY36" s="34"/>
-      <c r="AZ36" s="34"/>
+      <c r="AX36" s="89"/>
+      <c r="AY36" s="93"/>
+      <c r="AZ36" s="60"/>
       <c r="BA36" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
-      <c r="B37" s="41" t="s">
-        <v>133</v>
+      <c r="A37" s="46"/>
+      <c r="B37" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="C37" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="D37" s="45"/>
       <c r="E37" s="10">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" s="4">
-        <v>43742</v>
+        <v>43740</v>
       </c>
       <c r="G37" s="4">
-        <v>43745</v>
+        <v>43741</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="58"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
       <c r="X37" s="21"/>
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
       <c r="AA37" s="21"/>
       <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="58"/>
       <c r="AE37" s="21"/>
       <c r="AF37" s="21"/>
       <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
+      <c r="AH37" s="79"/>
+      <c r="AI37" s="58"/>
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
       <c r="AL37" s="34"/>
       <c r="AM37" s="34"/>
       <c r="AN37" s="34"/>
-      <c r="AO37" s="34"/>
-      <c r="AP37" s="34"/>
+      <c r="AO37" s="89"/>
+      <c r="AP37" s="60"/>
       <c r="AQ37" s="34"/>
       <c r="AR37" s="34"/>
       <c r="AS37" s="34"/>
-      <c r="AT37" s="34"/>
-      <c r="AU37" s="34"/>
+      <c r="AT37" s="89"/>
+      <c r="AU37" s="60"/>
       <c r="AV37" s="34"/>
       <c r="AW37" s="34"/>
-      <c r="AX37" s="34"/>
-      <c r="AY37" s="34"/>
-      <c r="AZ37" s="34"/>
+      <c r="AX37" s="89"/>
+      <c r="AY37" s="93"/>
+      <c r="AZ37" s="60"/>
       <c r="BA37" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
-      <c r="B38" s="41" t="s">
-        <v>134</v>
+      <c r="A38" s="46"/>
+      <c r="B38" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="C38" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E38" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F38" s="4">
-        <v>43746</v>
+        <v>43742</v>
       </c>
       <c r="G38" s="4">
-        <v>43749</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>108</v>
+        <v>43745</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="58"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="58"/>
       <c r="AE38" s="21"/>
       <c r="AF38" s="21"/>
       <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="21"/>
+      <c r="AH38" s="79"/>
+      <c r="AI38" s="58"/>
       <c r="AJ38" s="21"/>
       <c r="AK38" s="21"/>
       <c r="AL38" s="34"/>
       <c r="AM38" s="34"/>
       <c r="AN38" s="34"/>
-      <c r="AO38" s="34"/>
-      <c r="AP38" s="34"/>
+      <c r="AO38" s="89"/>
+      <c r="AP38" s="60"/>
       <c r="AQ38" s="34"/>
       <c r="AR38" s="34"/>
       <c r="AS38" s="34"/>
-      <c r="AT38" s="34"/>
-      <c r="AU38" s="34"/>
+      <c r="AT38" s="89"/>
+      <c r="AU38" s="60"/>
       <c r="AV38" s="34"/>
       <c r="AW38" s="34"/>
-      <c r="AX38" s="34"/>
-      <c r="AY38" s="34"/>
-      <c r="AZ38" s="34"/>
+      <c r="AX38" s="89"/>
+      <c r="AY38" s="93"/>
+      <c r="AZ38" s="60"/>
       <c r="BA38" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="41" t="s">
-        <v>135</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A39" s="46"/>
+      <c r="B39" s="40" t="s">
+        <v>124</v>
       </c>
       <c r="C39" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E39" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F39" s="4">
-        <v>43742</v>
+        <v>43746</v>
       </c>
       <c r="G39" s="4">
-        <v>43751</v>
+        <v>43749</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="58"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="79"/>
+      <c r="AD39" s="58"/>
       <c r="AE39" s="21"/>
       <c r="AF39" s="21"/>
       <c r="AG39" s="21"/>
-      <c r="AH39" s="21"/>
-      <c r="AI39" s="21"/>
+      <c r="AH39" s="79"/>
+      <c r="AI39" s="58"/>
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
       <c r="AL39" s="34"/>
       <c r="AM39" s="34"/>
       <c r="AN39" s="34"/>
-      <c r="AO39" s="34"/>
-      <c r="AP39" s="34"/>
+      <c r="AO39" s="89"/>
+      <c r="AP39" s="60"/>
       <c r="AQ39" s="34"/>
       <c r="AR39" s="34"/>
       <c r="AS39" s="34"/>
-      <c r="AT39" s="34"/>
-      <c r="AU39" s="34"/>
+      <c r="AT39" s="89"/>
+      <c r="AU39" s="60"/>
       <c r="AV39" s="34"/>
       <c r="AW39" s="34"/>
-      <c r="AX39" s="34"/>
-      <c r="AY39" s="34"/>
-      <c r="AZ39" s="34"/>
+      <c r="AX39" s="89"/>
+      <c r="AY39" s="93"/>
+      <c r="AZ39" s="60"/>
       <c r="BA39" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="55"/>
-      <c r="B40" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="11"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="46"/>
+      <c r="B40" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F40" s="4">
+        <v>43742</v>
+      </c>
+      <c r="G40" s="4">
+        <v>43751</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="58"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="80"/>
+      <c r="AD40" s="58"/>
       <c r="AE40" s="21"/>
       <c r="AF40" s="21"/>
       <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="21"/>
+      <c r="AH40" s="79"/>
+      <c r="AI40" s="58"/>
       <c r="AJ40" s="21"/>
       <c r="AK40" s="21"/>
       <c r="AL40" s="34"/>
       <c r="AM40" s="34"/>
       <c r="AN40" s="34"/>
-      <c r="AO40" s="34"/>
-      <c r="AP40" s="34"/>
+      <c r="AO40" s="89"/>
+      <c r="AP40" s="60"/>
       <c r="AQ40" s="34"/>
       <c r="AR40" s="34"/>
       <c r="AS40" s="34"/>
-      <c r="AT40" s="34"/>
-      <c r="AU40" s="34"/>
+      <c r="AT40" s="89"/>
+      <c r="AU40" s="60"/>
       <c r="AV40" s="34"/>
       <c r="AW40" s="34"/>
-      <c r="AX40" s="34"/>
-      <c r="AY40" s="34"/>
-      <c r="AZ40" s="34"/>
+      <c r="AX40" s="89"/>
+      <c r="AY40" s="93"/>
+      <c r="AZ40" s="60"/>
       <c r="BA40" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="20" t="s">
-        <v>170</v>
+      <c r="A41" s="46"/>
+      <c r="B41" s="40" t="s">
+        <v>158</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="5"/>
       <c r="E41" s="10"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="35"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="58"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
+      <c r="T41" s="58"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -4622,70 +4899,58 @@
       <c r="Z41" s="21"/>
       <c r="AA41" s="21"/>
       <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
+      <c r="AC41" s="79"/>
+      <c r="AD41" s="58"/>
       <c r="AE41" s="21"/>
       <c r="AF41" s="21"/>
       <c r="AG41" s="21"/>
-      <c r="AH41" s="21"/>
-      <c r="AI41" s="21"/>
+      <c r="AH41" s="79"/>
+      <c r="AI41" s="58"/>
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="34"/>
       <c r="AM41" s="34"/>
       <c r="AN41" s="34"/>
-      <c r="AO41" s="34"/>
-      <c r="AP41" s="34"/>
+      <c r="AO41" s="89"/>
+      <c r="AP41" s="60"/>
       <c r="AQ41" s="34"/>
       <c r="AR41" s="34"/>
       <c r="AS41" s="34"/>
-      <c r="AT41" s="34"/>
-      <c r="AU41" s="34"/>
+      <c r="AT41" s="89"/>
+      <c r="AU41" s="60"/>
       <c r="AV41" s="34"/>
       <c r="AW41" s="34"/>
-      <c r="AX41" s="34"/>
-      <c r="AY41" s="34"/>
-      <c r="AZ41" s="34"/>
-      <c r="BA41" s="2"/>
+      <c r="AX41" s="89"/>
+      <c r="AY41" s="93"/>
+      <c r="AZ41" s="60"/>
+      <c r="BA41" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="42" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="55"/>
-      <c r="B42" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" s="10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F42" s="4">
-        <v>43742</v>
-      </c>
-      <c r="G42" s="4">
-        <v>43743</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>163</v>
-      </c>
+      <c r="A42" s="46"/>
+      <c r="B42" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="35"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="58"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
+      <c r="T42" s="58"/>
+      <c r="U42" s="21"/>
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
       <c r="X42" s="21"/>
@@ -4693,114 +4958,118 @@
       <c r="Z42" s="21"/>
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
+      <c r="AC42" s="79"/>
+      <c r="AD42" s="58"/>
       <c r="AE42" s="21"/>
       <c r="AF42" s="21"/>
       <c r="AG42" s="21"/>
-      <c r="AH42" s="21"/>
-      <c r="AI42" s="21"/>
+      <c r="AH42" s="79"/>
+      <c r="AI42" s="58"/>
       <c r="AJ42" s="21"/>
       <c r="AK42" s="21"/>
       <c r="AL42" s="34"/>
       <c r="AM42" s="34"/>
       <c r="AN42" s="34"/>
-      <c r="AO42" s="34"/>
-      <c r="AP42" s="34"/>
+      <c r="AO42" s="89"/>
+      <c r="AP42" s="60"/>
       <c r="AQ42" s="34"/>
       <c r="AR42" s="34"/>
       <c r="AS42" s="34"/>
-      <c r="AT42" s="34"/>
-      <c r="AU42" s="34"/>
+      <c r="AT42" s="89"/>
+      <c r="AU42" s="60"/>
       <c r="AV42" s="34"/>
       <c r="AW42" s="34"/>
-      <c r="AX42" s="34"/>
-      <c r="AY42" s="34"/>
-      <c r="AZ42" s="34"/>
-      <c r="BA42" s="2"/>
+      <c r="AX42" s="89"/>
+      <c r="AY42" s="93"/>
+      <c r="AZ42" s="60"/>
+      <c r="BA42" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="43" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="36" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C43" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E43" s="10">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F43" s="4">
-        <v>43744</v>
+        <v>43742</v>
       </c>
       <c r="G43" s="4">
-        <v>43749</v>
+        <v>43743</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="58"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="21"/>
       <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
       <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
+      <c r="AC43" s="79"/>
+      <c r="AD43" s="58"/>
       <c r="AE43" s="21"/>
       <c r="AF43" s="21"/>
       <c r="AG43" s="21"/>
-      <c r="AH43" s="21"/>
-      <c r="AI43" s="21"/>
+      <c r="AH43" s="79"/>
+      <c r="AI43" s="58"/>
       <c r="AJ43" s="21"/>
       <c r="AK43" s="21"/>
       <c r="AL43" s="34"/>
       <c r="AM43" s="34"/>
       <c r="AN43" s="34"/>
-      <c r="AO43" s="34"/>
-      <c r="AP43" s="34"/>
+      <c r="AO43" s="89"/>
+      <c r="AP43" s="60"/>
       <c r="AQ43" s="34"/>
       <c r="AR43" s="34"/>
       <c r="AS43" s="34"/>
-      <c r="AT43" s="34"/>
-      <c r="AU43" s="34"/>
+      <c r="AT43" s="89"/>
+      <c r="AU43" s="60"/>
       <c r="AV43" s="34"/>
       <c r="AW43" s="34"/>
-      <c r="AX43" s="34"/>
-      <c r="AY43" s="34"/>
-      <c r="AZ43" s="34"/>
-      <c r="BA43" s="2"/>
+      <c r="AX43" s="89"/>
+      <c r="AY43" s="93"/>
+      <c r="AZ43" s="60"/>
+      <c r="BA43" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="44" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="36" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C44" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E44" s="10">
         <f t="shared" si="1"/>
@@ -4813,20 +5082,20 @@
         <v>43749</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="58"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
+      <c r="T44" s="58"/>
       <c r="U44" s="21"/>
       <c r="V44" s="8"/>
       <c r="W44" s="8"/>
@@ -4835,116 +5104,118 @@
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
+      <c r="AC44" s="79"/>
+      <c r="AD44" s="58"/>
       <c r="AE44" s="21"/>
       <c r="AF44" s="21"/>
       <c r="AG44" s="21"/>
-      <c r="AH44" s="21"/>
-      <c r="AI44" s="21"/>
+      <c r="AH44" s="79"/>
+      <c r="AI44" s="58"/>
       <c r="AJ44" s="21"/>
       <c r="AK44" s="21"/>
       <c r="AL44" s="34"/>
       <c r="AM44" s="34"/>
       <c r="AN44" s="34"/>
-      <c r="AO44" s="34"/>
-      <c r="AP44" s="34"/>
+      <c r="AO44" s="89"/>
+      <c r="AP44" s="60"/>
       <c r="AQ44" s="34"/>
       <c r="AR44" s="34"/>
       <c r="AS44" s="34"/>
-      <c r="AT44" s="34"/>
-      <c r="AU44" s="34"/>
+      <c r="AT44" s="89"/>
+      <c r="AU44" s="60"/>
       <c r="AV44" s="34"/>
       <c r="AW44" s="34"/>
-      <c r="AX44" s="34"/>
-      <c r="AY44" s="34"/>
-      <c r="AZ44" s="34"/>
-      <c r="BA44" s="2"/>
+      <c r="AX44" s="89"/>
+      <c r="AY44" s="93"/>
+      <c r="AZ44" s="60"/>
+      <c r="BA44" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="45" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
-      <c r="B45" s="20" t="s">
-        <v>168</v>
+      <c r="A45" s="46"/>
+      <c r="B45" s="36" t="s">
+        <v>156</v>
       </c>
       <c r="C45" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E45" s="10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F45" s="4">
-        <v>43750</v>
+        <v>43744</v>
       </c>
       <c r="G45" s="4">
-        <v>43751</v>
+        <v>43749</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="58"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
+      <c r="T45" s="58"/>
       <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="21"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="79"/>
+      <c r="AD45" s="58"/>
       <c r="AE45" s="21"/>
       <c r="AF45" s="21"/>
       <c r="AG45" s="21"/>
-      <c r="AH45" s="21"/>
-      <c r="AI45" s="21"/>
+      <c r="AH45" s="79"/>
+      <c r="AI45" s="58"/>
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="34"/>
       <c r="AM45" s="34"/>
       <c r="AN45" s="34"/>
-      <c r="AO45" s="34"/>
-      <c r="AP45" s="34"/>
+      <c r="AO45" s="89"/>
+      <c r="AP45" s="60"/>
       <c r="AQ45" s="34"/>
       <c r="AR45" s="34"/>
       <c r="AS45" s="34"/>
-      <c r="AT45" s="34"/>
-      <c r="AU45" s="34"/>
+      <c r="AT45" s="89"/>
+      <c r="AU45" s="60"/>
       <c r="AV45" s="34"/>
       <c r="AW45" s="34"/>
-      <c r="AX45" s="34"/>
-      <c r="AY45" s="34"/>
-      <c r="AZ45" s="34"/>
+      <c r="AX45" s="89"/>
+      <c r="AY45" s="93"/>
+      <c r="AZ45" s="60"/>
       <c r="BA45" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="20" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C46" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="E46" s="10">
         <f t="shared" si="1"/>
@@ -4956,21 +5227,21 @@
       <c r="G46" s="4">
         <v>43751</v>
       </c>
-      <c r="H46" s="15" t="s">
-        <v>91</v>
+      <c r="H46" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="58"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
+      <c r="T46" s="58"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -4979,71 +5250,71 @@
       <c r="Z46" s="21"/>
       <c r="AA46" s="21"/>
       <c r="AB46" s="8"/>
-      <c r="AC46" s="8"/>
-      <c r="AD46" s="21"/>
+      <c r="AC46" s="80"/>
+      <c r="AD46" s="58"/>
       <c r="AE46" s="21"/>
       <c r="AF46" s="21"/>
       <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="21"/>
+      <c r="AH46" s="79"/>
+      <c r="AI46" s="58"/>
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="34"/>
       <c r="AM46" s="34"/>
       <c r="AN46" s="34"/>
-      <c r="AO46" s="34"/>
-      <c r="AP46" s="34"/>
+      <c r="AO46" s="89"/>
+      <c r="AP46" s="60"/>
       <c r="AQ46" s="34"/>
       <c r="AR46" s="34"/>
       <c r="AS46" s="34"/>
-      <c r="AT46" s="34"/>
-      <c r="AU46" s="34"/>
+      <c r="AT46" s="89"/>
+      <c r="AU46" s="60"/>
       <c r="AV46" s="34"/>
       <c r="AW46" s="34"/>
-      <c r="AX46" s="34"/>
-      <c r="AY46" s="34"/>
-      <c r="AZ46" s="34"/>
+      <c r="AX46" s="89"/>
+      <c r="AY46" s="93"/>
+      <c r="AZ46" s="60"/>
       <c r="BA46" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="40" t="s">
-        <v>117</v>
+      <c r="A47" s="46"/>
+      <c r="B47" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="C47" s="13">
-        <f t="shared" ref="C47" si="2">IF(($K$1-F47+1)/E47&gt;=1,1,IF(($K$1-F47+1)/E47&lt;0,0, ($K$1-F47+1)/E47))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E47" s="10">
-        <f t="shared" ref="E47" si="3">G47+1-F47</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F47" s="4">
-        <v>43752</v>
+        <v>43750</v>
       </c>
       <c r="G47" s="4">
-        <v>43756</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
+        <v>43751</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="58"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
+      <c r="T47" s="58"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -5051,58 +5322,72 @@
       <c r="Y47" s="21"/>
       <c r="Z47" s="21"/>
       <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
-      <c r="AG47" s="8"/>
-      <c r="AH47" s="8"/>
-      <c r="AI47" s="21"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="80"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="79"/>
+      <c r="AI47" s="58"/>
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="34"/>
       <c r="AM47" s="34"/>
       <c r="AN47" s="34"/>
-      <c r="AO47" s="34"/>
-      <c r="AP47" s="34"/>
+      <c r="AO47" s="89"/>
+      <c r="AP47" s="60"/>
       <c r="AQ47" s="34"/>
       <c r="AR47" s="34"/>
       <c r="AS47" s="34"/>
-      <c r="AT47" s="34"/>
-      <c r="AU47" s="34"/>
+      <c r="AT47" s="89"/>
+      <c r="AU47" s="60"/>
       <c r="AV47" s="34"/>
       <c r="AW47" s="34"/>
-      <c r="AX47" s="34"/>
-      <c r="AY47" s="34"/>
-      <c r="AZ47" s="34"/>
+      <c r="AX47" s="89"/>
+      <c r="AY47" s="93"/>
+      <c r="AZ47" s="60"/>
       <c r="BA47" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
-      <c r="B48" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="14"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="13">
+        <f t="shared" ref="C48" si="2">IF(($K$1-F48+1)/E48&gt;=1,1,IF(($K$1-F48+1)/E48&lt;0,0, ($K$1-F48+1)/E48))</f>
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" ref="E48" si="3">G48+1-F48</f>
+        <v>5</v>
+      </c>
+      <c r="F48" s="4">
+        <v>43752</v>
+      </c>
+      <c r="G48" s="4">
+        <v>43756</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="58"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
+      <c r="T48" s="58"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
@@ -5111,71 +5396,57 @@
       <c r="Z48" s="21"/>
       <c r="AA48" s="21"/>
       <c r="AB48" s="21"/>
-      <c r="AC48" s="21"/>
-      <c r="AD48" s="21"/>
-      <c r="AE48" s="21"/>
-      <c r="AF48" s="21"/>
-      <c r="AG48" s="21"/>
-      <c r="AH48" s="21"/>
-      <c r="AI48" s="21"/>
+      <c r="AC48" s="79"/>
+      <c r="AD48" s="59"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="80"/>
+      <c r="AI48" s="58"/>
       <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
-      <c r="AL48" s="21"/>
-      <c r="AM48" s="21"/>
-      <c r="AN48" s="21"/>
-      <c r="AO48" s="21"/>
-      <c r="AP48" s="34"/>
+      <c r="AL48" s="34"/>
+      <c r="AM48" s="34"/>
+      <c r="AN48" s="34"/>
+      <c r="AO48" s="89"/>
+      <c r="AP48" s="60"/>
       <c r="AQ48" s="34"/>
       <c r="AR48" s="34"/>
       <c r="AS48" s="34"/>
-      <c r="AT48" s="34"/>
-      <c r="AU48" s="34"/>
+      <c r="AT48" s="89"/>
+      <c r="AU48" s="60"/>
       <c r="AV48" s="34"/>
       <c r="AW48" s="34"/>
-      <c r="AX48" s="34"/>
-      <c r="AY48" s="34"/>
-      <c r="AZ48" s="34"/>
+      <c r="AX48" s="89"/>
+      <c r="AY48" s="93"/>
+      <c r="AZ48" s="60"/>
       <c r="BA48" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="13">
-        <f t="shared" ref="C49" si="4">IF(($K$1-F49+1)/E49&gt;=1,1,IF(($K$1-F49+1)/E49&lt;0,0, ($K$1-F49+1)/E49))</f>
-        <v>1</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="10">
-        <f t="shared" ref="E49:E52" si="5">G49+1-F49</f>
-        <v>2</v>
-      </c>
-      <c r="F49" s="4">
-        <v>43757</v>
-      </c>
-      <c r="G49" s="4">
-        <v>43758</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="A49" s="46"/>
+      <c r="B49" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="14"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="58"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
+      <c r="T49" s="58"/>
       <c r="U49" s="21"/>
       <c r="V49" s="21"/>
       <c r="W49" s="21"/>
@@ -5184,71 +5455,71 @@
       <c r="Z49" s="21"/>
       <c r="AA49" s="21"/>
       <c r="AB49" s="21"/>
-      <c r="AC49" s="21"/>
-      <c r="AD49" s="21"/>
+      <c r="AC49" s="79"/>
+      <c r="AD49" s="58"/>
       <c r="AE49" s="21"/>
       <c r="AF49" s="21"/>
       <c r="AG49" s="21"/>
-      <c r="AH49" s="21"/>
-      <c r="AI49" s="8"/>
-      <c r="AJ49" s="8"/>
+      <c r="AH49" s="79"/>
+      <c r="AI49" s="58"/>
+      <c r="AJ49" s="21"/>
       <c r="AK49" s="21"/>
-      <c r="AL49" s="34"/>
-      <c r="AM49" s="34"/>
-      <c r="AN49" s="34"/>
-      <c r="AO49" s="34"/>
-      <c r="AP49" s="34"/>
+      <c r="AL49" s="21"/>
+      <c r="AM49" s="21"/>
+      <c r="AN49" s="21"/>
+      <c r="AO49" s="79"/>
+      <c r="AP49" s="60"/>
       <c r="AQ49" s="34"/>
       <c r="AR49" s="34"/>
       <c r="AS49" s="34"/>
-      <c r="AT49" s="34"/>
-      <c r="AU49" s="34"/>
+      <c r="AT49" s="89"/>
+      <c r="AU49" s="60"/>
       <c r="AV49" s="34"/>
       <c r="AW49" s="34"/>
-      <c r="AX49" s="34"/>
-      <c r="AY49" s="34"/>
-      <c r="AZ49" s="34"/>
+      <c r="AX49" s="89"/>
+      <c r="AY49" s="93"/>
+      <c r="AZ49" s="60"/>
       <c r="BA49" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="13">
+        <f t="shared" ref="C50" si="4">IF(($K$1-F50+1)/E50&gt;=1,1,IF(($K$1-F50+1)/E50&lt;0,0, ($K$1-F50+1)/E50))</f>
+        <v>1</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="13">
-        <f>IF(($K$1-F50+1)/E50&gt;=1,1,IF(($K$1-F50+1)/E50&lt;0,0, ($K$1-F50+1)/E50))</f>
-        <v>1</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="E50" s="10">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" ref="E50:E53" si="5">G50+1-F50</f>
+        <v>3</v>
       </c>
       <c r="F50" s="4">
         <v>43757</v>
       </c>
       <c r="G50" s="4">
-        <v>43763</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>101</v>
+        <v>43759</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="58"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
       <c r="R50" s="21"/>
       <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
+      <c r="T50" s="58"/>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
       <c r="W50" s="21"/>
@@ -5257,45 +5528,45 @@
       <c r="Z50" s="21"/>
       <c r="AA50" s="21"/>
       <c r="AB50" s="21"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
+      <c r="AC50" s="79"/>
+      <c r="AD50" s="58"/>
       <c r="AE50" s="21"/>
       <c r="AF50" s="21"/>
       <c r="AG50" s="21"/>
-      <c r="AH50" s="21"/>
-      <c r="AI50" s="8"/>
+      <c r="AH50" s="79"/>
+      <c r="AI50" s="59"/>
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8"/>
-      <c r="AL50" s="8"/>
-      <c r="AM50" s="8"/>
-      <c r="AN50" s="8"/>
-      <c r="AO50" s="8"/>
-      <c r="AP50" s="34"/>
+      <c r="AL50" s="34"/>
+      <c r="AM50" s="34"/>
+      <c r="AN50" s="34"/>
+      <c r="AO50" s="89"/>
+      <c r="AP50" s="60"/>
       <c r="AQ50" s="34"/>
       <c r="AR50" s="34"/>
       <c r="AS50" s="34"/>
-      <c r="AT50" s="34"/>
-      <c r="AU50" s="34"/>
+      <c r="AT50" s="89"/>
+      <c r="AU50" s="60"/>
       <c r="AV50" s="34"/>
       <c r="AW50" s="34"/>
-      <c r="AX50" s="34"/>
-      <c r="AY50" s="34"/>
-      <c r="AZ50" s="34"/>
+      <c r="AX50" s="89"/>
+      <c r="AY50" s="93"/>
+      <c r="AZ50" s="60"/>
       <c r="BA50" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C51" s="13">
         <f>IF(($K$1-F51+1)/E51&gt;=1,1,IF(($K$1-F51+1)/E51&lt;0,0, ($K$1-F51+1)/E51))</f>
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E51" s="10">
         <f t="shared" si="5"/>
@@ -5307,21 +5578,21 @@
       <c r="G51" s="4">
         <v>43763</v>
       </c>
-      <c r="H51" s="15" t="s">
-        <v>109</v>
+      <c r="H51" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="58"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
+      <c r="T51" s="58"/>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
       <c r="W51" s="21"/>
@@ -5330,45 +5601,45 @@
       <c r="Z51" s="21"/>
       <c r="AA51" s="21"/>
       <c r="AB51" s="21"/>
-      <c r="AC51" s="21"/>
-      <c r="AD51" s="21"/>
+      <c r="AC51" s="79"/>
+      <c r="AD51" s="58"/>
       <c r="AE51" s="21"/>
       <c r="AF51" s="21"/>
       <c r="AG51" s="21"/>
-      <c r="AH51" s="21"/>
-      <c r="AI51" s="8"/>
+      <c r="AH51" s="79"/>
+      <c r="AI51" s="59"/>
       <c r="AJ51" s="8"/>
       <c r="AK51" s="8"/>
       <c r="AL51" s="8"/>
       <c r="AM51" s="8"/>
       <c r="AN51" s="8"/>
-      <c r="AO51" s="8"/>
-      <c r="AP51" s="34"/>
+      <c r="AO51" s="80"/>
+      <c r="AP51" s="60"/>
       <c r="AQ51" s="34"/>
       <c r="AR51" s="34"/>
       <c r="AS51" s="34"/>
-      <c r="AT51" s="34"/>
-      <c r="AU51" s="34"/>
+      <c r="AT51" s="89"/>
+      <c r="AU51" s="60"/>
       <c r="AV51" s="34"/>
       <c r="AW51" s="34"/>
-      <c r="AX51" s="34"/>
-      <c r="AY51" s="34"/>
-      <c r="AZ51" s="34"/>
+      <c r="AX51" s="89"/>
+      <c r="AY51" s="93"/>
+      <c r="AZ51" s="60"/>
       <c r="BA51" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="55"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="19" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C52" s="13">
         <f>IF(($K$1-F52+1)/E52&gt;=1,1,IF(($K$1-F52+1)/E52&lt;0,0, ($K$1-F52+1)/E52))</f>
         <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" si="5"/>
@@ -5381,20 +5652,20 @@
         <v>43763</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="58"/>
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
+      <c r="T52" s="58"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
       <c r="W52" s="21"/>
@@ -5403,71 +5674,71 @@
       <c r="Z52" s="21"/>
       <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
-      <c r="AC52" s="21"/>
-      <c r="AD52" s="21"/>
+      <c r="AC52" s="79"/>
+      <c r="AD52" s="58"/>
       <c r="AE52" s="21"/>
       <c r="AF52" s="21"/>
       <c r="AG52" s="21"/>
-      <c r="AH52" s="21"/>
-      <c r="AI52" s="8"/>
+      <c r="AH52" s="79"/>
+      <c r="AI52" s="59"/>
       <c r="AJ52" s="8"/>
       <c r="AK52" s="8"/>
       <c r="AL52" s="8"/>
       <c r="AM52" s="8"/>
       <c r="AN52" s="8"/>
-      <c r="AO52" s="8"/>
-      <c r="AP52" s="34"/>
+      <c r="AO52" s="80"/>
+      <c r="AP52" s="60"/>
       <c r="AQ52" s="34"/>
       <c r="AR52" s="34"/>
       <c r="AS52" s="34"/>
-      <c r="AT52" s="34"/>
-      <c r="AU52" s="34"/>
+      <c r="AT52" s="89"/>
+      <c r="AU52" s="60"/>
       <c r="AV52" s="34"/>
       <c r="AW52" s="34"/>
-      <c r="AX52" s="34"/>
-      <c r="AY52" s="34"/>
-      <c r="AZ52" s="34"/>
+      <c r="AX52" s="89"/>
+      <c r="AY52" s="93"/>
+      <c r="AZ52" s="60"/>
       <c r="BA52" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="19" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C53" s="13">
-        <f t="shared" ref="C53:C54" si="6">IF(($K$1-F53+1)/E53&gt;=1,1,IF(($K$1-F53+1)/E53&lt;0,0, ($K$1-F53+1)/E53))</f>
+        <f>IF(($K$1-F53+1)/E53&gt;=1,1,IF(($K$1-F53+1)/E53&lt;0,0, ($K$1-F53+1)/E53))</f>
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" ref="E53:E59" si="7">G53+1-F53</f>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="F53" s="4">
-        <v>43759</v>
+        <v>43757</v>
       </c>
       <c r="G53" s="4">
-        <v>43761</v>
-      </c>
-      <c r="H53" s="35" t="s">
-        <v>96</v>
+        <v>43763</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="58"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
       <c r="R53" s="21"/>
       <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
+      <c r="T53" s="58"/>
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
       <c r="W53" s="21"/>
@@ -5476,71 +5747,71 @@
       <c r="Z53" s="21"/>
       <c r="AA53" s="21"/>
       <c r="AB53" s="21"/>
-      <c r="AC53" s="21"/>
-      <c r="AD53" s="21"/>
+      <c r="AC53" s="79"/>
+      <c r="AD53" s="58"/>
       <c r="AE53" s="21"/>
       <c r="AF53" s="21"/>
       <c r="AG53" s="21"/>
-      <c r="AH53" s="21"/>
-      <c r="AI53" s="21"/>
-      <c r="AJ53" s="21"/>
+      <c r="AH53" s="79"/>
+      <c r="AI53" s="59"/>
+      <c r="AJ53" s="8"/>
       <c r="AK53" s="8"/>
       <c r="AL53" s="8"/>
       <c r="AM53" s="8"/>
-      <c r="AN53" s="34"/>
-      <c r="AO53" s="34"/>
-      <c r="AP53" s="34"/>
+      <c r="AN53" s="8"/>
+      <c r="AO53" s="80"/>
+      <c r="AP53" s="60"/>
       <c r="AQ53" s="34"/>
       <c r="AR53" s="34"/>
       <c r="AS53" s="34"/>
-      <c r="AT53" s="34"/>
-      <c r="AU53" s="34"/>
+      <c r="AT53" s="89"/>
+      <c r="AU53" s="60"/>
       <c r="AV53" s="34"/>
       <c r="AW53" s="34"/>
-      <c r="AX53" s="34"/>
-      <c r="AY53" s="34"/>
-      <c r="AZ53" s="34"/>
+      <c r="AX53" s="89"/>
+      <c r="AY53" s="93"/>
+      <c r="AZ53" s="60"/>
       <c r="BA53" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="55"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="19" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C54" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C54:C55" si="6">IF(($K$1-F54+1)/E54&gt;=1,1,IF(($K$1-F54+1)/E54&lt;0,0, ($K$1-F54+1)/E54))</f>
         <v>1</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" ref="E54:E60" si="7">G54+1-F54</f>
+        <v>3</v>
       </c>
       <c r="F54" s="4">
+        <v>43760</v>
+      </c>
+      <c r="G54" s="4">
         <v>43762</v>
       </c>
-      <c r="G54" s="4">
-        <v>43763</v>
-      </c>
       <c r="H54" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="58"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="21"/>
       <c r="R54" s="21"/>
       <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
+      <c r="T54" s="58"/>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
       <c r="W54" s="21"/>
@@ -5549,57 +5820,71 @@
       <c r="Z54" s="21"/>
       <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
-      <c r="AD54" s="21"/>
+      <c r="AC54" s="79"/>
+      <c r="AD54" s="58"/>
       <c r="AE54" s="21"/>
       <c r="AF54" s="21"/>
       <c r="AG54" s="21"/>
-      <c r="AH54" s="21"/>
-      <c r="AI54" s="21"/>
+      <c r="AH54" s="79"/>
+      <c r="AI54" s="58"/>
       <c r="AJ54" s="21"/>
       <c r="AK54" s="21"/>
-      <c r="AL54" s="34"/>
-      <c r="AM54" s="34"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="8"/>
       <c r="AN54" s="8"/>
-      <c r="AO54" s="8"/>
-      <c r="AP54" s="34"/>
+      <c r="AO54" s="89"/>
+      <c r="AP54" s="60"/>
       <c r="AQ54" s="34"/>
       <c r="AR54" s="34"/>
       <c r="AS54" s="34"/>
-      <c r="AT54" s="34"/>
-      <c r="AU54" s="34"/>
+      <c r="AT54" s="89"/>
+      <c r="AU54" s="60"/>
       <c r="AV54" s="34"/>
       <c r="AW54" s="34"/>
-      <c r="AX54" s="34"/>
-      <c r="AY54" s="34"/>
-      <c r="AZ54" s="34"/>
+      <c r="AX54" s="89"/>
+      <c r="AY54" s="93"/>
+      <c r="AZ54" s="60"/>
       <c r="BA54" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="55"/>
-      <c r="B55" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="35"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>43763</v>
+      </c>
+      <c r="G55" s="4">
+        <v>43763</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="58"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="21"/>
       <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
+      <c r="T55" s="58"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
@@ -5608,71 +5893,57 @@
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="21"/>
+      <c r="AC55" s="79"/>
+      <c r="AD55" s="58"/>
       <c r="AE55" s="21"/>
       <c r="AF55" s="21"/>
       <c r="AG55" s="21"/>
-      <c r="AH55" s="21"/>
-      <c r="AI55" s="21"/>
+      <c r="AH55" s="79"/>
+      <c r="AI55" s="58"/>
       <c r="AJ55" s="21"/>
       <c r="AK55" s="21"/>
       <c r="AL55" s="34"/>
       <c r="AM55" s="34"/>
       <c r="AN55" s="34"/>
-      <c r="AO55" s="34"/>
-      <c r="AP55" s="21"/>
-      <c r="AQ55" s="21"/>
-      <c r="AR55" s="21"/>
-      <c r="AS55" s="21"/>
-      <c r="AT55" s="21"/>
-      <c r="AU55" s="34"/>
+      <c r="AO55" s="80"/>
+      <c r="AP55" s="60"/>
+      <c r="AQ55" s="34"/>
+      <c r="AR55" s="34"/>
+      <c r="AS55" s="34"/>
+      <c r="AT55" s="89"/>
+      <c r="AU55" s="60"/>
       <c r="AV55" s="34"/>
       <c r="AW55" s="34"/>
-      <c r="AX55" s="34"/>
-      <c r="AY55" s="34"/>
-      <c r="AZ55" s="34"/>
+      <c r="AX55" s="89"/>
+      <c r="AY55" s="93"/>
+      <c r="AZ55" s="60"/>
       <c r="BA55" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="13">
-        <f t="shared" ref="C56:C62" si="8">IF(($K$1-F56+1)/E56&gt;=1,1,IF(($K$1-F56+1)/E56&lt;0,0, ($K$1-F56+1)/E56))</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="E56" s="10">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="F56" s="4">
-        <v>43764</v>
-      </c>
-      <c r="G56" s="4">
-        <v>43768</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>149</v>
-      </c>
+      <c r="A56" s="46"/>
+      <c r="B56" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="35"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="58"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="21"/>
       <c r="R56" s="21"/>
       <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
+      <c r="T56" s="58"/>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
       <c r="W56" s="21"/>
@@ -5681,44 +5952,46 @@
       <c r="Z56" s="21"/>
       <c r="AA56" s="21"/>
       <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
+      <c r="AC56" s="79"/>
+      <c r="AD56" s="58"/>
       <c r="AE56" s="21"/>
       <c r="AF56" s="21"/>
       <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
-      <c r="AI56" s="21"/>
+      <c r="AH56" s="79"/>
+      <c r="AI56" s="58"/>
       <c r="AJ56" s="21"/>
       <c r="AK56" s="21"/>
       <c r="AL56" s="34"/>
       <c r="AM56" s="34"/>
       <c r="AN56" s="34"/>
-      <c r="AO56" s="34"/>
-      <c r="AP56" s="8"/>
-      <c r="AQ56" s="8"/>
-      <c r="AR56" s="8"/>
-      <c r="AS56" s="8"/>
-      <c r="AT56" s="8"/>
-      <c r="AU56" s="34"/>
+      <c r="AO56" s="89"/>
+      <c r="AP56" s="58"/>
+      <c r="AQ56" s="21"/>
+      <c r="AR56" s="21"/>
+      <c r="AS56" s="21"/>
+      <c r="AT56" s="79"/>
+      <c r="AU56" s="60"/>
       <c r="AV56" s="34"/>
       <c r="AW56" s="34"/>
-      <c r="AX56" s="34"/>
-      <c r="AY56" s="34"/>
-      <c r="AZ56" s="34"/>
+      <c r="AX56" s="89"/>
+      <c r="AY56" s="93"/>
+      <c r="AZ56" s="60"/>
       <c r="BA56" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="55"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="19" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C57" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C57:C63" si="8">IF(($K$1-F57+1)/E57&gt;=1,1,IF(($K$1-F57+1)/E57&lt;0,0, ($K$1-F57+1)/E57))</f>
         <v>1</v>
       </c>
-      <c r="D57" s="52"/>
+      <c r="D57" s="43" t="s">
+        <v>149</v>
+      </c>
       <c r="E57" s="10">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -5730,20 +6003,20 @@
         <v>43768</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
+      <c r="M57" s="81"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="58"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
       <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
+      <c r="T57" s="58"/>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
       <c r="W57" s="21"/>
@@ -5752,44 +6025,44 @@
       <c r="Z57" s="21"/>
       <c r="AA57" s="21"/>
       <c r="AB57" s="21"/>
-      <c r="AC57" s="21"/>
-      <c r="AD57" s="21"/>
+      <c r="AC57" s="79"/>
+      <c r="AD57" s="58"/>
       <c r="AE57" s="21"/>
       <c r="AF57" s="21"/>
       <c r="AG57" s="21"/>
-      <c r="AH57" s="21"/>
-      <c r="AI57" s="21"/>
+      <c r="AH57" s="79"/>
+      <c r="AI57" s="58"/>
       <c r="AJ57" s="21"/>
       <c r="AK57" s="21"/>
       <c r="AL57" s="34"/>
       <c r="AM57" s="34"/>
       <c r="AN57" s="34"/>
-      <c r="AO57" s="34"/>
-      <c r="AP57" s="8"/>
+      <c r="AO57" s="89"/>
+      <c r="AP57" s="59"/>
       <c r="AQ57" s="8"/>
       <c r="AR57" s="8"/>
       <c r="AS57" s="8"/>
-      <c r="AT57" s="8"/>
-      <c r="AU57" s="34"/>
+      <c r="AT57" s="80"/>
+      <c r="AU57" s="60"/>
       <c r="AV57" s="34"/>
       <c r="AW57" s="34"/>
-      <c r="AX57" s="34"/>
-      <c r="AY57" s="34"/>
-      <c r="AZ57" s="34"/>
+      <c r="AX57" s="89"/>
+      <c r="AY57" s="93"/>
+      <c r="AZ57" s="60"/>
       <c r="BA57" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="55"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="19" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C58" s="13">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D58" s="52"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="10">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -5801,20 +6074,20 @@
         <v>43768</v>
       </c>
       <c r="H58" s="35" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="58"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
       <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
+      <c r="T58" s="58"/>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
       <c r="W58" s="21"/>
@@ -5823,44 +6096,44 @@
       <c r="Z58" s="21"/>
       <c r="AA58" s="21"/>
       <c r="AB58" s="21"/>
-      <c r="AC58" s="21"/>
-      <c r="AD58" s="21"/>
+      <c r="AC58" s="79"/>
+      <c r="AD58" s="58"/>
       <c r="AE58" s="21"/>
       <c r="AF58" s="21"/>
       <c r="AG58" s="21"/>
-      <c r="AH58" s="21"/>
-      <c r="AI58" s="21"/>
+      <c r="AH58" s="79"/>
+      <c r="AI58" s="58"/>
       <c r="AJ58" s="21"/>
       <c r="AK58" s="21"/>
       <c r="AL58" s="34"/>
       <c r="AM58" s="34"/>
       <c r="AN58" s="34"/>
-      <c r="AO58" s="34"/>
-      <c r="AP58" s="8"/>
+      <c r="AO58" s="89"/>
+      <c r="AP58" s="59"/>
       <c r="AQ58" s="8"/>
       <c r="AR58" s="8"/>
       <c r="AS58" s="8"/>
-      <c r="AT58" s="8"/>
-      <c r="AU58" s="34"/>
+      <c r="AT58" s="80"/>
+      <c r="AU58" s="60"/>
       <c r="AV58" s="34"/>
       <c r="AW58" s="34"/>
-      <c r="AX58" s="34"/>
-      <c r="AY58" s="34"/>
-      <c r="AZ58" s="34"/>
+      <c r="AX58" s="89"/>
+      <c r="AY58" s="93"/>
+      <c r="AZ58" s="60"/>
       <c r="BA58" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="55"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="19" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C59" s="13">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D59" s="53"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="10">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -5872,20 +6145,20 @@
         <v>43768</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
+      <c r="M59" s="81"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="58"/>
       <c r="P59" s="21"/>
       <c r="Q59" s="21"/>
       <c r="R59" s="21"/>
       <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
+      <c r="T59" s="58"/>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
       <c r="W59" s="21"/>
@@ -5894,71 +6167,69 @@
       <c r="Z59" s="21"/>
       <c r="AA59" s="21"/>
       <c r="AB59" s="21"/>
-      <c r="AC59" s="21"/>
-      <c r="AD59" s="21"/>
+      <c r="AC59" s="79"/>
+      <c r="AD59" s="58"/>
       <c r="AE59" s="21"/>
       <c r="AF59" s="21"/>
       <c r="AG59" s="21"/>
-      <c r="AH59" s="21"/>
-      <c r="AI59" s="21"/>
+      <c r="AH59" s="79"/>
+      <c r="AI59" s="58"/>
       <c r="AJ59" s="21"/>
       <c r="AK59" s="21"/>
       <c r="AL59" s="34"/>
       <c r="AM59" s="34"/>
       <c r="AN59" s="34"/>
-      <c r="AO59" s="34"/>
-      <c r="AP59" s="8"/>
+      <c r="AO59" s="89"/>
+      <c r="AP59" s="59"/>
       <c r="AQ59" s="8"/>
       <c r="AR59" s="8"/>
       <c r="AS59" s="8"/>
-      <c r="AT59" s="8"/>
-      <c r="AU59" s="34"/>
+      <c r="AT59" s="80"/>
+      <c r="AU59" s="60"/>
       <c r="AV59" s="34"/>
       <c r="AW59" s="34"/>
-      <c r="AX59" s="34"/>
-      <c r="AY59" s="34"/>
-      <c r="AZ59" s="34"/>
+      <c r="AX59" s="89"/>
+      <c r="AY59" s="93"/>
+      <c r="AZ59" s="60"/>
       <c r="BA59" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="55"/>
-      <c r="B60" s="40" t="s">
-        <v>147</v>
+      <c r="A60" s="46"/>
+      <c r="B60" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="C60" s="13">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="D60" s="45"/>
       <c r="E60" s="10">
-        <f>G60+1-F60</f>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="F60" s="4">
-        <v>43769</v>
+        <v>43764</v>
       </c>
       <c r="G60" s="4">
-        <v>43772</v>
+        <v>43768</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="58"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="21"/>
       <c r="R60" s="21"/>
       <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
+      <c r="T60" s="58"/>
       <c r="U60" s="21"/>
       <c r="V60" s="21"/>
       <c r="W60" s="21"/>
@@ -5967,38 +6238,38 @@
       <c r="Z60" s="21"/>
       <c r="AA60" s="21"/>
       <c r="AB60" s="21"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="21"/>
+      <c r="AC60" s="79"/>
+      <c r="AD60" s="58"/>
       <c r="AE60" s="21"/>
       <c r="AF60" s="21"/>
       <c r="AG60" s="21"/>
-      <c r="AH60" s="21"/>
-      <c r="AI60" s="21"/>
+      <c r="AH60" s="79"/>
+      <c r="AI60" s="58"/>
       <c r="AJ60" s="21"/>
       <c r="AK60" s="21"/>
       <c r="AL60" s="34"/>
       <c r="AM60" s="34"/>
       <c r="AN60" s="34"/>
-      <c r="AO60" s="34"/>
-      <c r="AP60" s="34"/>
-      <c r="AQ60" s="34"/>
-      <c r="AR60" s="34"/>
-      <c r="AS60" s="34"/>
-      <c r="AT60" s="34"/>
-      <c r="AU60" s="8"/>
-      <c r="AV60" s="8"/>
-      <c r="AW60" s="8"/>
-      <c r="AX60" s="8"/>
-      <c r="AY60" s="34"/>
-      <c r="AZ60" s="34"/>
+      <c r="AO60" s="89"/>
+      <c r="AP60" s="59"/>
+      <c r="AQ60" s="8"/>
+      <c r="AR60" s="8"/>
+      <c r="AS60" s="8"/>
+      <c r="AT60" s="80"/>
+      <c r="AU60" s="60"/>
+      <c r="AV60" s="34"/>
+      <c r="AW60" s="34"/>
+      <c r="AX60" s="89"/>
+      <c r="AY60" s="93"/>
+      <c r="AZ60" s="60"/>
       <c r="BA60" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="55"/>
-      <c r="B61" s="40" t="s">
-        <v>148</v>
+      <c r="A61" s="46"/>
+      <c r="B61" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="C61" s="13">
         <f t="shared" si="8"/>
@@ -6009,29 +6280,29 @@
       </c>
       <c r="E61" s="10">
         <f>G61+1-F61</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F61" s="4">
-        <v>43773</v>
+        <v>43769</v>
       </c>
       <c r="G61" s="4">
-        <v>43773</v>
+        <v>43772</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="84"/>
+      <c r="O61" s="58"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
       <c r="S61" s="21"/>
-      <c r="T61" s="21"/>
+      <c r="T61" s="58"/>
       <c r="U61" s="21"/>
       <c r="V61" s="21"/>
       <c r="W61" s="21"/>
@@ -6040,71 +6311,71 @@
       <c r="Z61" s="21"/>
       <c r="AA61" s="21"/>
       <c r="AB61" s="21"/>
-      <c r="AC61" s="21"/>
-      <c r="AD61" s="21"/>
+      <c r="AC61" s="79"/>
+      <c r="AD61" s="58"/>
       <c r="AE61" s="21"/>
       <c r="AF61" s="21"/>
       <c r="AG61" s="21"/>
-      <c r="AH61" s="21"/>
-      <c r="AI61" s="21"/>
+      <c r="AH61" s="79"/>
+      <c r="AI61" s="58"/>
       <c r="AJ61" s="21"/>
       <c r="AK61" s="21"/>
       <c r="AL61" s="34"/>
       <c r="AM61" s="34"/>
       <c r="AN61" s="34"/>
-      <c r="AO61" s="34"/>
-      <c r="AP61" s="34"/>
+      <c r="AO61" s="89"/>
+      <c r="AP61" s="60"/>
       <c r="AQ61" s="34"/>
       <c r="AR61" s="34"/>
       <c r="AS61" s="34"/>
-      <c r="AT61" s="34"/>
-      <c r="AU61" s="34"/>
-      <c r="AV61" s="34"/>
-      <c r="AW61" s="34"/>
-      <c r="AX61" s="34"/>
-      <c r="AY61" s="8"/>
-      <c r="AZ61" s="34"/>
+      <c r="AT61" s="89"/>
+      <c r="AU61" s="59"/>
+      <c r="AV61" s="8"/>
+      <c r="AW61" s="8"/>
+      <c r="AX61" s="80"/>
+      <c r="AY61" s="93"/>
+      <c r="AZ61" s="60"/>
       <c r="BA61" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="56"/>
-      <c r="B62" s="40" t="s">
-        <v>144</v>
+      <c r="A62" s="46"/>
+      <c r="B62" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="C62" s="13">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E62" s="10">
         <f>G62+1-F62</f>
         <v>1</v>
       </c>
       <c r="F62" s="4">
-        <v>43774</v>
+        <v>43773</v>
       </c>
       <c r="G62" s="4">
-        <v>43774</v>
+        <v>43773</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="84"/>
+      <c r="O62" s="58"/>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
       <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
+      <c r="T62" s="58"/>
       <c r="U62" s="21"/>
       <c r="V62" s="21"/>
       <c r="W62" s="21"/>
@@ -6113,424 +6384,496 @@
       <c r="Z62" s="21"/>
       <c r="AA62" s="21"/>
       <c r="AB62" s="21"/>
-      <c r="AC62" s="21"/>
-      <c r="AD62" s="21"/>
+      <c r="AC62" s="79"/>
+      <c r="AD62" s="58"/>
       <c r="AE62" s="21"/>
       <c r="AF62" s="21"/>
       <c r="AG62" s="21"/>
-      <c r="AH62" s="21"/>
-      <c r="AI62" s="21"/>
+      <c r="AH62" s="79"/>
+      <c r="AI62" s="58"/>
       <c r="AJ62" s="21"/>
       <c r="AK62" s="21"/>
       <c r="AL62" s="34"/>
       <c r="AM62" s="34"/>
       <c r="AN62" s="34"/>
-      <c r="AO62" s="34"/>
-      <c r="AP62" s="34"/>
+      <c r="AO62" s="89"/>
+      <c r="AP62" s="60"/>
       <c r="AQ62" s="34"/>
       <c r="AR62" s="34"/>
       <c r="AS62" s="34"/>
-      <c r="AT62" s="34"/>
-      <c r="AU62" s="34"/>
+      <c r="AT62" s="89"/>
+      <c r="AU62" s="60"/>
       <c r="AV62" s="34"/>
       <c r="AW62" s="34"/>
-      <c r="AX62" s="34"/>
-      <c r="AY62" s="34"/>
-      <c r="AZ62" s="8"/>
+      <c r="AX62" s="89"/>
+      <c r="AY62" s="85"/>
+      <c r="AZ62" s="60"/>
       <c r="BA62" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="E63"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="47"/>
+      <c r="B63" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="10">
+        <f>G63+1-F63</f>
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
+        <v>43774</v>
+      </c>
+      <c r="G63" s="4">
+        <v>43774</v>
+      </c>
+      <c r="H63" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="81"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="58"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="58"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="21"/>
+      <c r="AC63" s="79"/>
+      <c r="AD63" s="58"/>
+      <c r="AE63" s="21"/>
+      <c r="AF63" s="21"/>
+      <c r="AG63" s="21"/>
+      <c r="AH63" s="79"/>
+      <c r="AI63" s="58"/>
+      <c r="AJ63" s="21"/>
+      <c r="AK63" s="21"/>
+      <c r="AL63" s="34"/>
+      <c r="AM63" s="34"/>
+      <c r="AN63" s="34"/>
+      <c r="AO63" s="89"/>
+      <c r="AP63" s="60"/>
+      <c r="AQ63" s="34"/>
+      <c r="AR63" s="34"/>
+      <c r="AS63" s="34"/>
+      <c r="AT63" s="89"/>
+      <c r="AU63" s="60"/>
+      <c r="AV63" s="34"/>
+      <c r="AW63" s="34"/>
+      <c r="AX63" s="89"/>
+      <c r="AY63" s="93"/>
+      <c r="AZ63" s="59"/>
+      <c r="BA63" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.3">
       <c r="E64"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E65"/>
+    <row r="65" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E66"/>
+    <row r="66" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E67"/>
+    <row r="67" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E68"/>
+    <row r="68" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E69"/>
+    <row r="69" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="2"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="2"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="2"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="2"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="2"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="2"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="2"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="2"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="2"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="2"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
     </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
     </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
     </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
+    <row r="157" spans="6:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A16:A62"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D28:D31"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A5:A15"/>
@@ -6543,6 +6886,11 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A16:A63"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D29:D32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
